--- a/GUI + Reviews/202512/Europe 500.xlsx
+++ b/GUI + Reviews/202512/Europe 500.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\PM-Indices-IndexOperations\Review Files\202512\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{926493DB-5319-4147-9D67-55900147F2C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{92D1FC59-8FE5-462E-8836-166173828683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{A140FEB8-55E2-4F90-8759-B729119F1B68}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="15820" xr2:uid="{17EBB7C0-5272-4E12-BD74-BAEFF5600375}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2517" uniqueCount="1540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2520" uniqueCount="1541">
   <si>
     <t>Rank</t>
   </si>
@@ -2807,6 +2807,9 @@
     <t>GB00BKFB1C65</t>
   </si>
   <si>
+    <t>MICC-NL</t>
+  </si>
+  <si>
     <t>MAGNUM</t>
   </si>
   <si>
@@ -4412,7 +4415,7 @@
     <t>UNILEVER</t>
   </si>
   <si>
-    <t>GB00B10RZP78</t>
+    <t>GB00BVZK7T90</t>
   </si>
   <si>
     <t>UNI-IT</t>
@@ -5070,29 +5073,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9FF84C5A-25F8-4E26-B98E-BBFA042CC198}" name="Universe" displayName="Universe" ref="A1:T501" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A1:T501" xr:uid="{9FF84C5A-25F8-4E26-B98E-BBFA042CC198}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{19710D83-5C0E-4BDD-8179-ADC99DFF651A}" name="Universe" displayName="Universe" ref="A1:T501" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:T501" xr:uid="{19710D83-5C0E-4BDD-8179-ADC99DFF651A}"/>
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{0534639E-620B-42BA-BA1C-12257E3BCFAB}" name="Rank" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{E4F6CEFF-A0C4-45D1-B06C-88CB27211DEA}" name="Ticker" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{57BD49B6-12BB-4FC7-BB11-50B8C76AED7B}" name="Name" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{12C1F483-DD02-4762-B10C-191904FFE855}" name="ISIN" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{A7EAADFB-E930-4C88-BCB2-954EC27CF5B5}" name="MIC" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{EC21C7BB-9A7B-41A0-BCD3-6F1508C6049F}" name="NOSH" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{BC045E7A-04FC-4403-98FB-6F9512D7D799}" name="Price (EUR) " dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{557195FB-D034-44DE-8084-55179BE90947}" name="Currency (Local)" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{0DB8D76D-17B3-403B-8ECA-9B4E02A6CBA4}" name="12 month aver. turnover EUR" dataDxfId="13"/>
-    <tableColumn id="10" xr3:uid="{4A5EE0A0-4BFE-46C2-8E91-2B005B911085}" name="20 days aver. turn EUR" dataDxfId="12"/>
-    <tableColumn id="11" xr3:uid="{D4AB3840-8AF9-4166-979B-F9AA5C857807}" name="10 days aver. turn EUR" dataDxfId="11"/>
-    <tableColumn id="12" xr3:uid="{D2ACB5FB-8338-4C3D-BAA6-A806690C848B}" name="5 days aver. turn EUR" dataDxfId="10"/>
-    <tableColumn id="13" xr3:uid="{13F3362B-C5EC-46B1-A182-905873A34107}" name="6 month aver. turnover EUR" dataDxfId="9"/>
-    <tableColumn id="14" xr3:uid="{07054142-7F3A-46D5-ACB2-E38EF1C56C28}" name="126 days volatility" dataDxfId="8"/>
-    <tableColumn id="15" xr3:uid="{3ECBC206-90E2-4BF6-97EA-FB7649F6289C}" name="100 days volatility" dataDxfId="7"/>
-    <tableColumn id="16" xr3:uid="{90675F53-3D87-4AF0-8065-117F8B8437FD}" name="100 days aver. turn EUR" dataDxfId="6"/>
-    <tableColumn id="17" xr3:uid="{E021A0E4-99F1-4E54-9BB2-F7020D16D5AE}" name="180 days volatility" dataDxfId="5"/>
-    <tableColumn id="18" xr3:uid="{1AB37EE9-6C24-4D4E-95F6-75E7322BD11A}" name="3 months aver. Turnover EUR" dataDxfId="4"/>
-    <tableColumn id="19" xr3:uid="{D04A96CB-2A3B-462D-8E5D-59E040E74EEA}" name="mcap" dataDxfId="3"/>
-    <tableColumn id="20" xr3:uid="{465D855D-996A-4E85-8EC5-5347ED3DDE45}" name="3 months aver. Turnover USD" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{E10E2FD6-5403-4FBD-A4F9-32C7D51F47BC}" name="Rank" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{A7153490-9AEC-4B0C-852A-757AD2572687}" name="Ticker" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{64A44BB7-2E82-4233-A0A8-E98970DAC909}" name="Name" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{028D82BA-A89B-4342-90FE-25F52A76D350}" name="ISIN" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{0B9561C9-62F7-42A7-B120-7B478497C6C7}" name="MIC" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{40F4CB05-179F-4E04-A069-60DCF06CFFA9}" name="NOSH" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{DA68A5BD-22A5-47CB-92B3-E0BD6A9BF26D}" name="Price (EUR) " dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{7A9FE29F-4BF1-419D-9DBB-86D4C00D098F}" name="Currency (Local)" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{FCBF5C85-52C1-41BB-88CA-0F4AAD1F6430}" name="12 month aver. turnover EUR" dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{F25B306E-2095-488D-B9FC-92BF1D100807}" name="20 days aver. turn EUR" dataDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{AB750AD4-DCD2-48D0-A38F-7B36DF1BA4EA}" name="10 days aver. turn EUR" dataDxfId="11"/>
+    <tableColumn id="12" xr3:uid="{FF60D079-9880-4C3F-88BE-29AA583C148C}" name="5 days aver. turn EUR" dataDxfId="10"/>
+    <tableColumn id="13" xr3:uid="{D039BA89-A029-471F-91F8-AB12682F8995}" name="6 month aver. turnover EUR" dataDxfId="9"/>
+    <tableColumn id="14" xr3:uid="{1E25564F-1389-4886-AF5D-9D46987E7AB5}" name="126 days volatility" dataDxfId="8"/>
+    <tableColumn id="15" xr3:uid="{82EFE555-0774-4828-8B37-B39877825744}" name="100 days volatility" dataDxfId="7"/>
+    <tableColumn id="16" xr3:uid="{46B49FCC-E93E-4DE3-A549-6686EC897F9A}" name="100 days aver. turn EUR" dataDxfId="6"/>
+    <tableColumn id="17" xr3:uid="{FEC88A2E-3D1F-4CE3-9F03-56604ECD91AD}" name="180 days volatility" dataDxfId="5"/>
+    <tableColumn id="18" xr3:uid="{CABDF5A1-111C-4D27-BC6C-EE42737AEBA5}" name="3 months aver. Turnover EUR" dataDxfId="4"/>
+    <tableColumn id="19" xr3:uid="{C1B62590-06FA-40ED-B5E1-8CD10C26E969}" name="mcap" dataDxfId="3"/>
+    <tableColumn id="20" xr3:uid="{530FE29C-64AB-4CA0-97CB-344076A4A249}" name="3 months aver. Turnover USD" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5414,34 +5417,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13701F97-FEED-40CF-97BE-C004D65D85D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59C5456E-ABA1-4AF8-8988-4435D22CAF7B}">
   <dimension ref="A1:T501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.07421875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.4609375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.53515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.53515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.4609375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.3046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.53515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.3046875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.69140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.3046875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.921875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.3046875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5503,7 +5506,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -5561,7 +5564,7 @@
         <v>62193238.2715085</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -5619,7 +5622,7 @@
         <v>26464460.1663213</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -5677,7 +5680,7 @@
         <v>10826195.627906401</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -5735,7 +5738,7 @@
         <v>86128671.132137001</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -5793,7 +5796,7 @@
         <v>5604798.4842202403</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -5851,7 +5854,7 @@
         <v>158048185.59731099</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -5909,7 +5912,7 @@
         <v>7983942.7410139795</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -5967,7 +5970,7 @@
         <v>9626963.10094372</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -6025,7 +6028,7 @@
         <v>74011533.285271406</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -6083,7 +6086,7 @@
         <v>14937172.8155508</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -6141,7 +6144,7 @@
         <v>14870504.708213501</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -6199,7 +6202,7 @@
         <v>32368096.481348298</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -6257,7 +6260,7 @@
         <v>6529131.6772357104</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -6315,7 +6318,7 @@
         <v>25638744.9053693</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -6373,7 +6376,7 @@
         <v>10530597.9193963</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -6431,7 +6434,7 @@
         <v>21533420.170928001</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -6489,7 +6492,7 @@
         <v>115732872.619123</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -6547,7 +6550,7 @@
         <v>20343635.175954401</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -6605,7 +6608,7 @@
         <v>10291722.1112567</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -6663,7 +6666,7 @@
         <v>106864711.33240899</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -6721,7 +6724,7 @@
         <v>6202526.7586991899</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -6779,7 +6782,7 @@
         <v>39166035.996399403</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -6837,7 +6840,7 @@
         <v>37403210.168830097</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -6895,7 +6898,7 @@
         <v>17054765.9102805</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -6953,7 +6956,7 @@
         <v>68591726.965471104</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -7011,7 +7014,7 @@
         <v>38604765.560353503</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -7069,7 +7072,7 @@
         <v>114554343.79323301</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -7127,7 +7130,7 @@
         <v>196902206.79192001</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -7185,7 +7188,7 @@
         <v>22032961.209808301</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -7243,7 +7246,7 @@
         <v>27850274.641827401</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -7301,7 +7304,7 @@
         <v>93484255.813070297</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -7359,7 +7362,7 @@
         <v>25603802.704050802</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -7417,7 +7420,7 @@
         <v>4986890.6477419101</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -7475,7 +7478,7 @@
         <v>196175264.25025299</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -7533,7 +7536,7 @@
         <v>4584855.4659092799</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -7591,7 +7594,7 @@
         <v>26113386.405836798</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -7649,7 +7652,7 @@
         <v>46709167.596201099</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -7707,7 +7710,7 @@
         <v>11376216.524367001</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -7765,7 +7768,7 @@
         <v>5143482.27414372</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -7823,7 +7826,7 @@
         <v>85742457.639205396</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -7881,7 +7884,7 @@
         <v>29069961.6932142</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -7939,7 +7942,7 @@
         <v>39375051.176587097</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -7997,7 +8000,7 @@
         <v>70415381.574164093</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -8055,7 +8058,7 @@
         <v>83818950.664562598</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -8113,7 +8116,7 @@
         <v>49525756.627262801</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -8171,7 +8174,7 @@
         <v>93759694.750503898</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -8229,7 +8232,7 @@
         <v>628790744.55153298</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -8287,7 +8290,7 @@
         <v>28518085.073169298</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -8345,7 +8348,7 @@
         <v>47259857.141617998</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -8403,7 +8406,7 @@
         <v>18003472.946546599</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -8461,7 +8464,7 @@
         <v>219633419.72317401</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -8519,7 +8522,7 @@
         <v>74138471.4579072</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -8577,7 +8580,7 @@
         <v>18172411.928061198</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -8635,7 +8638,7 @@
         <v>18551186.3402256</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -8693,7 +8696,7 @@
         <v>12181076.340442801</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -8751,7 +8754,7 @@
         <v>7954503.5293308999</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -8809,7 +8812,7 @@
         <v>43837470.482757099</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -8867,7 +8870,7 @@
         <v>9716515.6630968601</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -8925,7 +8928,7 @@
         <v>176913247.69380099</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -8983,7 +8986,7 @@
         <v>10329901.4169861</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -9041,7 +9044,7 @@
         <v>39005921.812812701</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -9099,7 +9102,7 @@
         <v>51753046.606706403</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -9157,7 +9160,7 @@
         <v>21646150.1627337</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -9215,7 +9218,7 @@
         <v>93641092.133531496</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -9273,7 +9276,7 @@
         <v>7846962.0171422204</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -9331,7 +9334,7 @@
         <v>21774070.150373701</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -9389,7 +9392,7 @@
         <v>286921509.29607397</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -9447,7 +9450,7 @@
         <v>100818039.01477601</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -9505,7 +9508,7 @@
         <v>57007826.622915402</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -9563,7 +9566,7 @@
         <v>253325577.49467301</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -9621,7 +9624,7 @@
         <v>31954007.670451399</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -9679,7 +9682,7 @@
         <v>24645872.701529101</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -9737,7 +9740,7 @@
         <v>129991740.619543</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -9795,7 +9798,7 @@
         <v>19323518.594131101</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -9853,7 +9856,7 @@
         <v>18829093.415523998</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -9911,7 +9914,7 @@
         <v>108191934.593705</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -9969,7 +9972,7 @@
         <v>17643251.667031601</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -10027,7 +10030,7 @@
         <v>69761047.993120596</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -10085,7 +10088,7 @@
         <v>206870092.04022601</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -10143,7 +10146,7 @@
         <v>70226437.618759006</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -10201,7 +10204,7 @@
         <v>21160968.218863901</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -10259,7 +10262,7 @@
         <v>8511177.0973675996</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -10317,7 +10320,7 @@
         <v>35662448.505756803</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -10375,7 +10378,7 @@
         <v>13937047.1058493</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -10433,7 +10436,7 @@
         <v>32258314.4473093</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -10491,7 +10494,7 @@
         <v>10129627.898457799</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -10549,7 +10552,7 @@
         <v>11705645.0032946</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -10607,7 +10610,7 @@
         <v>9416024.6575329807</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -10665,7 +10668,7 @@
         <v>14416670.843463801</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -10723,7 +10726,7 @@
         <v>9926110.5675690901</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -10781,7 +10784,7 @@
         <v>96887741.330895305</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -10839,7 +10842,7 @@
         <v>243014105.80956301</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -10897,7 +10900,7 @@
         <v>42686409.234442897</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -10955,7 +10958,7 @@
         <v>34427168.6140991</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -11013,7 +11016,7 @@
         <v>121882642.41874801</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -11071,7 +11074,7 @@
         <v>137925878.805994</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -11129,7 +11132,7 @@
         <v>5085670.9425248401</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -11187,7 +11190,7 @@
         <v>17559125.184292998</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -11245,7 +11248,7 @@
         <v>165981171.29705301</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -11303,7 +11306,7 @@
         <v>12514031.6749867</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -11361,7 +11364,7 @@
         <v>60516741.810162596</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -11419,7 +11422,7 @@
         <v>34356229.027399696</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -11477,7 +11480,7 @@
         <v>22617931.986262102</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -11535,7 +11538,7 @@
         <v>17889577.644311599</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -11593,7 +11596,7 @@
         <v>27905628.0882218</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -11651,7 +11654,7 @@
         <v>27903209.310544901</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -11709,7 +11712,7 @@
         <v>78123008.163468003</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -11767,7 +11770,7 @@
         <v>46839594.640638903</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -11825,7 +11828,7 @@
         <v>63352843.131319202</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -11883,7 +11886,7 @@
         <v>22296186.405629601</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -11941,7 +11944,7 @@
         <v>36871077.798372298</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -11999,7 +12002,7 @@
         <v>14509457.780684</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -12057,7 +12060,7 @@
         <v>35548691.2316847</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -12115,7 +12118,7 @@
         <v>5273600.3095694296</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -12173,7 +12176,7 @@
         <v>32692978.378703501</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -12231,7 +12234,7 @@
         <v>160466057.30153701</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -12289,7 +12292,7 @@
         <v>23109066.656636</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -12347,7 +12350,7 @@
         <v>4756284.3246490704</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -12405,7 +12408,7 @@
         <v>22856963.769924201</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -12463,7 +12466,7 @@
         <v>137861147.53916299</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -12521,7 +12524,7 @@
         <v>57391659.776871704</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -12579,7 +12582,7 @@
         <v>41084452.856529303</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -12637,7 +12640,7 @@
         <v>18226395.976751301</v>
       </c>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -12695,7 +12698,7 @@
         <v>15779156.306249</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -12753,7 +12756,7 @@
         <v>6954787.1301461002</v>
       </c>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -12811,7 +12814,7 @@
         <v>5010991.9309343901</v>
       </c>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -12869,7 +12872,7 @@
         <v>82418820.723665595</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -12927,7 +12930,7 @@
         <v>24301872.545799602</v>
       </c>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -12985,7 +12988,7 @@
         <v>21704225.058465902</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -13043,7 +13046,7 @@
         <v>11503476.1689096</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -13101,7 +13104,7 @@
         <v>47356527.306202903</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -13159,7 +13162,7 @@
         <v>87189947.560488701</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -13217,7 +13220,7 @@
         <v>36030906.129439399</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -13275,7 +13278,7 @@
         <v>17801641.064172499</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -13333,7 +13336,7 @@
         <v>58683000.949091703</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -13391,7 +13394,7 @@
         <v>20403952.7708163</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -13449,7 +13452,7 @@
         <v>22147223.294928201</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -13507,7 +13510,7 @@
         <v>207685531.526611</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -13565,7 +13568,7 @@
         <v>93941883.061751395</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -13623,7 +13626,7 @@
         <v>71999492.791794896</v>
       </c>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -13681,7 +13684,7 @@
         <v>195339529.84979901</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -13739,7 +13742,7 @@
         <v>89726181.703338295</v>
       </c>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -13797,7 +13800,7 @@
         <v>8636841.5969372895</v>
       </c>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -13855,7 +13858,7 @@
         <v>18059659.862087101</v>
       </c>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -13913,7 +13916,7 @@
         <v>39634676.145481199</v>
       </c>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -13971,7 +13974,7 @@
         <v>56032442.922977298</v>
       </c>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -14029,7 +14032,7 @@
         <v>61064932.562312499</v>
       </c>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -14087,7 +14090,7 @@
         <v>69301798.764840096</v>
       </c>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -14145,7 +14148,7 @@
         <v>18634131.2961918</v>
       </c>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -14203,7 +14206,7 @@
         <v>26229885.021113802</v>
       </c>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -14261,7 +14264,7 @@
         <v>41149381.274617396</v>
       </c>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -14319,7 +14322,7 @@
         <v>18368607.126767401</v>
       </c>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -14377,7 +14380,7 @@
         <v>27421460.150026601</v>
       </c>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -14435,7 +14438,7 @@
         <v>11123013.0874385</v>
       </c>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -14493,7 +14496,7 @@
         <v>7001269.8666899297</v>
       </c>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -14551,7 +14554,7 @@
         <v>15635697.707981501</v>
       </c>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -14609,7 +14612,7 @@
         <v>8896551.6462977193</v>
       </c>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -14667,7 +14670,7 @@
         <v>12497925.8644452</v>
       </c>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -14725,7 +14728,7 @@
         <v>23841929.5477065</v>
       </c>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -14783,7 +14786,7 @@
         <v>173125633.060821</v>
       </c>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -14841,7 +14844,7 @@
         <v>94211911.034526795</v>
       </c>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -14899,7 +14902,7 @@
         <v>187677318.683135</v>
       </c>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -14957,7 +14960,7 @@
         <v>12702189.9190831</v>
       </c>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -15015,7 +15018,7 @@
         <v>28604088.7902629</v>
       </c>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -15073,7 +15076,7 @@
         <v>40224109.893526301</v>
       </c>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -15131,7 +15134,7 @@
         <v>66579661.748341002</v>
       </c>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -15189,7 +15192,7 @@
         <v>57381159.0228782</v>
       </c>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -15247,7 +15250,7 @@
         <v>31962163.378448799</v>
       </c>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -15305,7 +15308,7 @@
         <v>128240726.61354201</v>
       </c>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -15363,7 +15366,7 @@
         <v>33946323.807981104</v>
       </c>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -15421,7 +15424,7 @@
         <v>18760218.054551098</v>
       </c>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -15479,7 +15482,7 @@
         <v>37697742.792461701</v>
       </c>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -15537,7 +15540,7 @@
         <v>44730630.198727697</v>
       </c>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -15595,7 +15598,7 @@
         <v>20192181.8741065</v>
       </c>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -15653,7 +15656,7 @@
         <v>19831143.265164498</v>
       </c>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -15711,7 +15714,7 @@
         <v>53659843.291723996</v>
       </c>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -15769,7 +15772,7 @@
         <v>10286681.716591099</v>
       </c>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -15827,7 +15830,7 @@
         <v>12220150.906341201</v>
       </c>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -15885,7 +15888,7 @@
         <v>228887602.858601</v>
       </c>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -15943,7 +15946,7 @@
         <v>78004976.785517395</v>
       </c>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -16001,7 +16004,7 @@
         <v>35827355.485031597</v>
       </c>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -16059,7 +16062,7 @@
         <v>9479255.9263503607</v>
       </c>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -16117,7 +16120,7 @@
         <v>112794.81500183399</v>
       </c>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -16175,7 +16178,7 @@
         <v>11352893.501126001</v>
       </c>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -16233,7 +16236,7 @@
         <v>26754344.346135799</v>
       </c>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -16291,7 +16294,7 @@
         <v>8758389.5432763994</v>
       </c>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -16349,7 +16352,7 @@
         <v>30791339.970476702</v>
       </c>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -16407,7 +16410,7 @@
         <v>38009452.814037599</v>
       </c>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -16465,7 +16468,7 @@
         <v>42844090.831971802</v>
       </c>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -16523,7 +16526,7 @@
         <v>122870997.63624801</v>
       </c>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -16581,7 +16584,7 @@
         <v>9823817.9232734293</v>
       </c>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -16639,7 +16642,7 @@
         <v>27646243.243147101</v>
       </c>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -16697,7 +16700,7 @@
         <v>11146698.458584599</v>
       </c>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -16755,7 +16758,7 @@
         <v>8383617.1785413204</v>
       </c>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -16813,7 +16816,7 @@
         <v>28261011.471990298</v>
       </c>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -16871,7 +16874,7 @@
         <v>43279822.093941301</v>
       </c>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -16929,7 +16932,7 @@
         <v>14153034.2508728</v>
       </c>
     </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -16987,7 +16990,7 @@
         <v>86287613.120007694</v>
       </c>
     </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -17045,7 +17048,7 @@
         <v>44312819.106072098</v>
       </c>
     </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -17103,7 +17106,7 @@
         <v>14681894.7653076</v>
       </c>
     </row>
-    <row r="202" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -17161,7 +17164,7 @@
         <v>10288669.156579901</v>
       </c>
     </row>
-    <row r="203" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -17219,7 +17222,7 @@
         <v>9545440.1789268106</v>
       </c>
     </row>
-    <row r="204" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -17277,7 +17280,7 @@
         <v>79248085.594575003</v>
       </c>
     </row>
-    <row r="205" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -17335,7 +17338,7 @@
         <v>7976480.3828598596</v>
       </c>
     </row>
-    <row r="206" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -17393,7 +17396,7 @@
         <v>15712323.266307199</v>
       </c>
     </row>
-    <row r="207" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -17451,7 +17454,7 @@
         <v>119722314.01663999</v>
       </c>
     </row>
-    <row r="208" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -17509,7 +17512,7 @@
         <v>17047447.201814398</v>
       </c>
     </row>
-    <row r="209" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -17567,7 +17570,7 @@
         <v>130740882.18537501</v>
       </c>
     </row>
-    <row r="210" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -17625,7 +17628,7 @@
         <v>17392151.250797998</v>
       </c>
     </row>
-    <row r="211" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -17683,7 +17686,7 @@
         <v>71396295.110774904</v>
       </c>
     </row>
-    <row r="212" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -17741,7 +17744,7 @@
         <v>23363531.981298398</v>
       </c>
     </row>
-    <row r="213" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -17799,7 +17802,7 @@
         <v>30252378.632888999</v>
       </c>
     </row>
-    <row r="214" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -17857,7 +17860,7 @@
         <v>71836006.321187899</v>
       </c>
     </row>
-    <row r="215" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -17915,7 +17918,7 @@
         <v>64625963.888559699</v>
       </c>
     </row>
-    <row r="216" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -17973,7 +17976,7 @@
         <v>16957825.974252298</v>
       </c>
     </row>
-    <row r="217" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -18031,7 +18034,7 @@
         <v>32049005.612376198</v>
       </c>
     </row>
-    <row r="218" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -18089,7 +18092,7 @@
         <v>36678023.522991903</v>
       </c>
     </row>
-    <row r="219" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -18147,7 +18150,7 @@
         <v>62942364.179218702</v>
       </c>
     </row>
-    <row r="220" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -18205,7 +18208,7 @@
         <v>12427795.170078401</v>
       </c>
     </row>
-    <row r="221" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -18263,7 +18266,7 @@
         <v>132334098.846276</v>
       </c>
     </row>
-    <row r="222" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -18321,7 +18324,7 @@
         <v>34600661.218282796</v>
       </c>
     </row>
-    <row r="223" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -18379,7 +18382,7 @@
         <v>11992955.339787301</v>
       </c>
     </row>
-    <row r="224" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -18437,7 +18440,7 @@
         <v>12895597.7330164</v>
       </c>
     </row>
-    <row r="225" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -18495,7 +18498,7 @@
         <v>18616217.258075301</v>
       </c>
     </row>
-    <row r="226" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -18553,7 +18556,7 @@
         <v>94906140.899781495</v>
       </c>
     </row>
-    <row r="227" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -18611,7 +18614,7 @@
         <v>14644735.2765182</v>
       </c>
     </row>
-    <row r="228" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -18669,7 +18672,7 @@
         <v>220962567.83528101</v>
       </c>
     </row>
-    <row r="229" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -18727,7 +18730,7 @@
         <v>161812322.55946299</v>
       </c>
     </row>
-    <row r="230" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -18785,7 +18788,7 @@
         <v>16732184.624154299</v>
       </c>
     </row>
-    <row r="231" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -18843,7 +18846,7 @@
         <v>10838926.5034461</v>
       </c>
     </row>
-    <row r="232" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -18901,7 +18904,7 @@
         <v>27130606.973647799</v>
       </c>
     </row>
-    <row r="233" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -18959,7 +18962,7 @@
         <v>13672618.9027247</v>
       </c>
     </row>
-    <row r="234" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -19017,7 +19020,7 @@
         <v>40285399.555010602</v>
       </c>
     </row>
-    <row r="235" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -19075,7 +19078,7 @@
         <v>141326631.93808499</v>
       </c>
     </row>
-    <row r="236" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -19133,7 +19136,7 @@
         <v>41510373.511022203</v>
       </c>
     </row>
-    <row r="237" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -19191,7 +19194,7 @@
         <v>13079048.783596</v>
       </c>
     </row>
-    <row r="238" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -19249,7 +19252,7 @@
         <v>10193704.947180999</v>
       </c>
     </row>
-    <row r="239" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -19307,7 +19310,7 @@
         <v>146351395.30293599</v>
       </c>
     </row>
-    <row r="240" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -19365,7 +19368,7 @@
         <v>21420115.9905423</v>
       </c>
     </row>
-    <row r="241" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -19423,7 +19426,7 @@
         <v>185876374.37553799</v>
       </c>
     </row>
-    <row r="242" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -19481,7 +19484,7 @@
         <v>33042759.5506678</v>
       </c>
     </row>
-    <row r="243" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -19539,7 +19542,7 @@
         <v>11316306.7015</v>
       </c>
     </row>
-    <row r="244" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -19597,7 +19600,7 @@
         <v>19036593.085661501</v>
       </c>
     </row>
-    <row r="245" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -19655,7 +19658,7 @@
         <v>329523646.21244597</v>
       </c>
     </row>
-    <row r="246" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -19713,7 +19716,7 @@
         <v>54278470.073206998</v>
       </c>
     </row>
-    <row r="247" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -19771,7 +19774,7 @@
         <v>9886256.3324825093</v>
       </c>
     </row>
-    <row r="248" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -19829,7 +19832,7 @@
         <v>81659425.851955697</v>
       </c>
     </row>
-    <row r="249" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -19887,7 +19890,7 @@
         <v>10164291.477043699</v>
       </c>
     </row>
-    <row r="250" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -19945,7 +19948,7 @@
         <v>9371875.8321179897</v>
       </c>
     </row>
-    <row r="251" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -20003,7 +20006,7 @@
         <v>25669456.921825301</v>
       </c>
     </row>
-    <row r="252" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -20061,7 +20064,7 @@
         <v>6956087.7747435002</v>
       </c>
     </row>
-    <row r="253" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -20119,7 +20122,7 @@
         <v>31619089.749928098</v>
       </c>
     </row>
-    <row r="254" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -20177,7 +20180,7 @@
         <v>20426781.785667099</v>
       </c>
     </row>
-    <row r="255" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -20235,7 +20238,7 @@
         <v>17638061.149832699</v>
       </c>
     </row>
-    <row r="256" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -20293,7 +20296,7 @@
         <v>29843764.134474799</v>
       </c>
     </row>
-    <row r="257" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -20351,7 +20354,7 @@
         <v>7817745.3476921497</v>
       </c>
     </row>
-    <row r="258" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -20409,7 +20412,7 @@
         <v>30474784.2804185</v>
       </c>
     </row>
-    <row r="259" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -20467,7 +20470,7 @@
         <v>8875961.0250158291</v>
       </c>
     </row>
-    <row r="260" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -20525,7 +20528,7 @@
         <v>43359474.1252959</v>
       </c>
     </row>
-    <row r="261" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -20583,7 +20586,7 @@
         <v>110033129.397947</v>
       </c>
     </row>
-    <row r="262" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -20641,7 +20644,7 @@
         <v>32578410.796717498</v>
       </c>
     </row>
-    <row r="263" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -20699,7 +20702,7 @@
         <v>10219431.937639499</v>
       </c>
     </row>
-    <row r="264" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -20757,7 +20760,7 @@
         <v>17614582.138758902</v>
       </c>
     </row>
-    <row r="265" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>264</v>
       </c>
@@ -20815,7 +20818,7 @@
         <v>32583250.155760601</v>
       </c>
     </row>
-    <row r="266" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -20873,7 +20876,7 @@
         <v>15137430.665752901</v>
       </c>
     </row>
-    <row r="267" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -20931,7 +20934,7 @@
         <v>19212903.468168199</v>
       </c>
     </row>
-    <row r="268" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>267</v>
       </c>
@@ -20989,7 +20992,7 @@
         <v>13785256.555536</v>
       </c>
     </row>
-    <row r="269" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>268</v>
       </c>
@@ -21047,7 +21050,7 @@
         <v>33426966.275331799</v>
       </c>
     </row>
-    <row r="270" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>269</v>
       </c>
@@ -21105,7 +21108,7 @@
         <v>8564949.6186064109</v>
       </c>
     </row>
-    <row r="271" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -21163,7 +21166,7 @@
         <v>28709278.033163499</v>
       </c>
     </row>
-    <row r="272" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>271</v>
       </c>
@@ -21221,7 +21224,7 @@
         <v>37882663.331041902</v>
       </c>
     </row>
-    <row r="273" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -21279,7 +21282,7 @@
         <v>65312591.5351118</v>
       </c>
     </row>
-    <row r="274" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -21337,7 +21340,7 @@
         <v>5312094.4765798301</v>
       </c>
     </row>
-    <row r="275" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -21395,7 +21398,7 @@
         <v>20774635.099536698</v>
       </c>
     </row>
-    <row r="276" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -21453,7 +21456,7 @@
         <v>5130382.1531311898</v>
       </c>
     </row>
-    <row r="277" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -21511,7 +21514,7 @@
         <v>15294876.845135299</v>
       </c>
     </row>
-    <row r="278" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -21569,7 +21572,7 @@
         <v>43875024.214184001</v>
       </c>
     </row>
-    <row r="279" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -21627,7 +21630,7 @@
         <v>93970508.512403801</v>
       </c>
     </row>
-    <row r="280" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>279</v>
       </c>
@@ -21685,7 +21688,7 @@
         <v>175977655.27555001</v>
       </c>
     </row>
-    <row r="281" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -21743,7 +21746,7 @@
         <v>10332100.2251832</v>
       </c>
     </row>
-    <row r="282" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -21801,7 +21804,7 @@
         <v>30888372.196182098</v>
       </c>
     </row>
-    <row r="283" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>282</v>
       </c>
@@ -21859,7 +21862,7 @@
         <v>5318294.78898755</v>
       </c>
     </row>
-    <row r="284" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>283</v>
       </c>
@@ -21917,7 +21920,7 @@
         <v>101393325.13144299</v>
       </c>
     </row>
-    <row r="285" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>284</v>
       </c>
@@ -21975,7 +21978,7 @@
         <v>55885767.831276298</v>
       </c>
     </row>
-    <row r="286" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>285</v>
       </c>
@@ -22033,7 +22036,7 @@
         <v>131647895.24743</v>
       </c>
     </row>
-    <row r="287" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>286</v>
       </c>
@@ -22091,7 +22094,7 @@
         <v>12742068.7192143</v>
       </c>
     </row>
-    <row r="288" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>287</v>
       </c>
@@ -22149,7 +22152,7 @@
         <v>80376146.424741194</v>
       </c>
     </row>
-    <row r="289" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>288</v>
       </c>
@@ -22207,7 +22210,7 @@
         <v>140136487.22382599</v>
       </c>
     </row>
-    <row r="290" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>289</v>
       </c>
@@ -22265,7 +22268,7 @@
         <v>26604952.888617601</v>
       </c>
     </row>
-    <row r="291" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>290</v>
       </c>
@@ -22323,7 +22326,7 @@
         <v>6341485.3406119896</v>
       </c>
     </row>
-    <row r="292" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>291</v>
       </c>
@@ -22381,7 +22384,7 @@
         <v>35955045.639815398</v>
       </c>
     </row>
-    <row r="293" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>292</v>
       </c>
@@ -22439,7 +22442,7 @@
         <v>6091136.6655432098</v>
       </c>
     </row>
-    <row r="294" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>293</v>
       </c>
@@ -22497,7 +22500,7 @@
         <v>313555952.450616</v>
       </c>
     </row>
-    <row r="295" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>294</v>
       </c>
@@ -22555,76 +22558,76 @@
         <v>16719237.261068</v>
       </c>
     </row>
-    <row r="296" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>295</v>
       </c>
-      <c r="B296" s="1" t="e">
-        <v>#N/A</v>
+      <c r="B296" s="1" t="s">
+        <v>923</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>924</v>
-      </c>
-      <c r="E296" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F296" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G296" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H296" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I296" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J296" s="1" t="e">
-        <v>#N/A</v>
+        <v>925</v>
+      </c>
+      <c r="E296" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F296" s="1">
+        <v>612259739</v>
+      </c>
+      <c r="G296" s="1">
+        <v>13.44768515</v>
+      </c>
+      <c r="H296" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I296" s="1">
+        <v>3650398.736</v>
+      </c>
+      <c r="J296" s="1">
+        <v>3201151.1850000001</v>
       </c>
       <c r="K296" s="1"/>
       <c r="L296" s="1"/>
-      <c r="M296" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N296" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O296" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P296" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q296" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R296" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S296" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T296" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="297" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="M296" s="1">
+        <v>2968536.1639999999</v>
+      </c>
+      <c r="N296" s="1">
+        <v>0.80589823100000002</v>
+      </c>
+      <c r="O296" s="1">
+        <v>0.83060940299999997</v>
+      </c>
+      <c r="P296" s="1">
+        <v>3084673.1460000002</v>
+      </c>
+      <c r="Q296" s="1">
+        <v>0.98213662300000004</v>
+      </c>
+      <c r="R296" s="1">
+        <v>3230482.8470000001</v>
+      </c>
+      <c r="S296" s="1">
+        <v>8233476200.0931759</v>
+      </c>
+      <c r="T296" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>296</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="E297" s="1" t="s">
         <v>508</v>
@@ -22671,18 +22674,18 @@
         <v>4874991.6236339202</v>
       </c>
     </row>
-    <row r="298" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>297</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="E298" s="1" t="s">
         <v>23</v>
@@ -22729,18 +22732,18 @@
         <v>24201916.026780799</v>
       </c>
     </row>
-    <row r="299" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>298</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E299" s="1" t="s">
         <v>23</v>
@@ -22787,18 +22790,18 @@
         <v>16874800.374694601</v>
       </c>
     </row>
-    <row r="300" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>299</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="E300" s="1" t="s">
         <v>83</v>
@@ -22845,18 +22848,18 @@
         <v>129699924.29912101</v>
       </c>
     </row>
-    <row r="301" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>300</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="E301" s="1" t="s">
         <v>83</v>
@@ -22903,18 +22906,18 @@
         <v>40228548.298423097</v>
       </c>
     </row>
-    <row r="302" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>301</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="E302" s="1" t="s">
         <v>64</v>
@@ -22961,18 +22964,18 @@
         <v>11739247.0689968</v>
       </c>
     </row>
-    <row r="303" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>302</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="E303" s="1" t="s">
         <v>23</v>
@@ -23019,18 +23022,18 @@
         <v>11445645.939225599</v>
       </c>
     </row>
-    <row r="304" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>303</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="E304" s="1" t="s">
         <v>508</v>
@@ -23077,18 +23080,18 @@
         <v>19685886.144303899</v>
       </c>
     </row>
-    <row r="305" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>304</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="E305" s="1" t="s">
         <v>53</v>
@@ -23135,18 +23138,18 @@
         <v>62021916.1128987</v>
       </c>
     </row>
-    <row r="306" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>305</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="E306" s="1" t="s">
         <v>45</v>
@@ -23193,18 +23196,18 @@
         <v>4752310.1867298</v>
       </c>
     </row>
-    <row r="307" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>306</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="E307" s="1" t="s">
         <v>28</v>
@@ -23251,18 +23254,18 @@
         <v>61166985.025174297</v>
       </c>
     </row>
-    <row r="308" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>307</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="E308" s="1" t="s">
         <v>23</v>
@@ -23309,18 +23312,18 @@
         <v>19715324.054554399</v>
       </c>
     </row>
-    <row r="309" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>308</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E309" s="1" t="s">
         <v>121</v>
@@ -23367,18 +23370,18 @@
         <v>16739375.992670501</v>
       </c>
     </row>
-    <row r="310" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>309</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="E310" s="1" t="s">
         <v>83</v>
@@ -23425,18 +23428,18 @@
         <v>49830169.221571296</v>
       </c>
     </row>
-    <row r="311" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>310</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="E311" s="1" t="s">
         <v>83</v>
@@ -23483,18 +23486,18 @@
         <v>147461314.67462799</v>
       </c>
     </row>
-    <row r="312" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>311</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="E312" s="1" t="s">
         <v>23</v>
@@ -23541,18 +23544,18 @@
         <v>98761944.260346502</v>
       </c>
     </row>
-    <row r="313" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>312</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="E313" s="1" t="s">
         <v>64</v>
@@ -23599,18 +23602,18 @@
         <v>30508956.581627399</v>
       </c>
     </row>
-    <row r="314" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>313</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E314" s="1" t="s">
         <v>23</v>
@@ -23657,18 +23660,18 @@
         <v>102985998.346026</v>
       </c>
     </row>
-    <row r="315" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>314</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="E315" s="1" t="s">
         <v>83</v>
@@ -23715,18 +23718,18 @@
         <v>18786460.605107501</v>
       </c>
     </row>
-    <row r="316" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>315</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="E316" s="1" t="s">
         <v>508</v>
@@ -23773,18 +23776,18 @@
         <v>25132208.8937556</v>
       </c>
     </row>
-    <row r="317" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>316</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="E317" s="1" t="s">
         <v>45</v>
@@ -23831,18 +23834,18 @@
         <v>354116478.26623398</v>
       </c>
     </row>
-    <row r="318" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>317</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="E318" s="1" t="s">
         <v>53</v>
@@ -23889,18 +23892,18 @@
         <v>20852135.443474699</v>
       </c>
     </row>
-    <row r="319" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>318</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="E319" s="1" t="s">
         <v>23</v>
@@ -23947,18 +23950,18 @@
         <v>31127450.849055301</v>
       </c>
     </row>
-    <row r="320" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>319</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="E320" s="1" t="s">
         <v>33</v>
@@ -24005,18 +24008,18 @@
         <v>27905030.5915308</v>
       </c>
     </row>
-    <row r="321" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>320</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="E321" s="1" t="s">
         <v>135</v>
@@ -24063,18 +24066,18 @@
         <v>15091700.5785935</v>
       </c>
     </row>
-    <row r="322" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>321</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="E322" s="1" t="s">
         <v>57</v>
@@ -24121,18 +24124,18 @@
         <v>36729280.716433503</v>
       </c>
     </row>
-    <row r="323" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>322</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="E323" s="1" t="s">
         <v>33</v>
@@ -24179,18 +24182,18 @@
         <v>9572863.9855518397</v>
       </c>
     </row>
-    <row r="324" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>323</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="E324" s="1" t="s">
         <v>508</v>
@@ -24237,18 +24240,18 @@
         <v>97482564.918623894</v>
       </c>
     </row>
-    <row r="325" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>324</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="E325" s="1" t="s">
         <v>508</v>
@@ -24295,18 +24298,18 @@
         <v>63718870.813999698</v>
       </c>
     </row>
-    <row r="326" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>325</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="E326" s="1" t="s">
         <v>83</v>
@@ -24353,18 +24356,18 @@
         <v>16046482.3012782</v>
       </c>
     </row>
-    <row r="327" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>326</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="E327" s="1" t="s">
         <v>33</v>
@@ -24411,18 +24414,18 @@
         <v>5641881.8351569297</v>
       </c>
     </row>
-    <row r="328" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>327</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="E328" s="1" t="s">
         <v>121</v>
@@ -24469,18 +24472,18 @@
         <v>25839000.361750901</v>
       </c>
     </row>
-    <row r="329" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>328</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="E329" s="1" t="s">
         <v>45</v>
@@ -24527,18 +24530,18 @@
         <v>333481559.47244501</v>
       </c>
     </row>
-    <row r="330" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>329</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="E330" s="1" t="s">
         <v>135</v>
@@ -24585,18 +24588,18 @@
         <v>314723774.56817001</v>
       </c>
     </row>
-    <row r="331" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>330</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="E331" s="1" t="s">
         <v>135</v>
@@ -24643,18 +24646,18 @@
         <v>35400687.315142497</v>
       </c>
     </row>
-    <row r="332" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>331</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="E332" s="1" t="s">
         <v>155</v>
@@ -24701,18 +24704,18 @@
         <v>17979998.471455801</v>
       </c>
     </row>
-    <row r="333" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>332</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="E333" s="1" t="s">
         <v>53</v>
@@ -24759,18 +24762,18 @@
         <v>65550218.294033103</v>
       </c>
     </row>
-    <row r="334" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>333</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="E334" s="1" t="s">
         <v>508</v>
@@ -24817,18 +24820,18 @@
         <v>15704445.2192131</v>
       </c>
     </row>
-    <row r="335" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>334</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="E335" s="1" t="s">
         <v>121</v>
@@ -24875,18 +24878,18 @@
         <v>10096129.053734399</v>
       </c>
     </row>
-    <row r="336" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>335</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="E336" s="1" t="s">
         <v>135</v>
@@ -24933,18 +24936,18 @@
         <v>39304163.085337602</v>
       </c>
     </row>
-    <row r="337" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>336</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="E337" s="1" t="s">
         <v>135</v>
@@ -24991,18 +24994,18 @@
         <v>29785377.612162098</v>
       </c>
     </row>
-    <row r="338" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>337</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="E338" s="1" t="s">
         <v>45</v>
@@ -25049,18 +25052,18 @@
         <v>70160133.933676794</v>
       </c>
     </row>
-    <row r="339" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>338</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="E339" s="1" t="s">
         <v>23</v>
@@ -25107,18 +25110,18 @@
         <v>19459444.485508598</v>
       </c>
     </row>
-    <row r="340" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>339</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="E340" s="1" t="s">
         <v>53</v>
@@ -25165,18 +25168,18 @@
         <v>62995884.734736897</v>
       </c>
     </row>
-    <row r="341" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>340</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="E341" s="1" t="s">
         <v>23</v>
@@ -25223,18 +25226,18 @@
         <v>15914591.327870199</v>
       </c>
     </row>
-    <row r="342" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>341</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="E342" s="1" t="s">
         <v>57</v>
@@ -25281,18 +25284,18 @@
         <v>37563228.149794899</v>
       </c>
     </row>
-    <row r="343" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>342</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="E343" s="1" t="s">
         <v>23</v>
@@ -25339,18 +25342,18 @@
         <v>20202187.8116914</v>
       </c>
     </row>
-    <row r="344" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>343</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="E344" s="1" t="s">
         <v>83</v>
@@ -25397,18 +25400,18 @@
         <v>37993071.589299902</v>
       </c>
     </row>
-    <row r="345" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>344</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="E345" s="1" t="s">
         <v>83</v>
@@ -25455,18 +25458,18 @@
         <v>23779570.769689001</v>
       </c>
     </row>
-    <row r="346" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>345</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="E346" s="1" t="s">
         <v>28</v>
@@ -25513,18 +25516,18 @@
         <v>38085130.555267602</v>
       </c>
     </row>
-    <row r="347" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>346</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="E347" s="1" t="s">
         <v>57</v>
@@ -25571,18 +25574,18 @@
         <v>139066300.627534</v>
       </c>
     </row>
-    <row r="348" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>347</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="E348" s="1" t="s">
         <v>23</v>
@@ -25629,18 +25632,18 @@
         <v>54152720.011635102</v>
       </c>
     </row>
-    <row r="349" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>348</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="D349" s="1" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="E349" s="1" t="s">
         <v>28</v>
@@ -25687,18 +25690,18 @@
         <v>102784721.398377</v>
       </c>
     </row>
-    <row r="350" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>349</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="E350" s="1" t="s">
         <v>45</v>
@@ -25745,18 +25748,18 @@
         <v>12033653.4613152</v>
       </c>
     </row>
-    <row r="351" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>350</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="E351" s="1" t="s">
         <v>53</v>
@@ -25803,18 +25806,18 @@
         <v>52070196.316010803</v>
       </c>
     </row>
-    <row r="352" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>351</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="D352" s="1" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="E352" s="1" t="s">
         <v>83</v>
@@ -25861,18 +25864,18 @@
         <v>21011196.583819602</v>
       </c>
     </row>
-    <row r="353" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>352</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="E353" s="1" t="s">
         <v>155</v>
@@ -25919,18 +25922,18 @@
         <v>11284589.6398986</v>
       </c>
     </row>
-    <row r="354" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>353</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="E354" s="1" t="s">
         <v>57</v>
@@ -25977,18 +25980,18 @@
         <v>16491483.172831999</v>
       </c>
     </row>
-    <row r="355" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>354</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="E355" s="1" t="s">
         <v>83</v>
@@ -26035,18 +26038,18 @@
         <v>8217416.9222722296</v>
       </c>
     </row>
-    <row r="356" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>355</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="D356" s="1" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="E356" s="1" t="s">
         <v>23</v>
@@ -26093,18 +26096,18 @@
         <v>60877811.970253401</v>
       </c>
     </row>
-    <row r="357" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>356</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="E357" s="1" t="s">
         <v>28</v>
@@ -26151,18 +26154,18 @@
         <v>15126664.1112363</v>
       </c>
     </row>
-    <row r="358" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>357</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="E358" s="1" t="s">
         <v>64</v>
@@ -26209,18 +26212,18 @@
         <v>27461394.009672899</v>
       </c>
     </row>
-    <row r="359" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>358</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="E359" s="1" t="s">
         <v>57</v>
@@ -26267,18 +26270,18 @@
         <v>38012064.798709601</v>
       </c>
     </row>
-    <row r="360" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>359</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="D360" s="1" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="E360" s="1" t="s">
         <v>53</v>
@@ -26325,18 +26328,18 @@
         <v>43064169.281303599</v>
       </c>
     </row>
-    <row r="361" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>360</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="E361" s="1" t="s">
         <v>83</v>
@@ -26383,18 +26386,18 @@
         <v>63562657.345713302</v>
       </c>
     </row>
-    <row r="362" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>361</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="E362" s="1" t="s">
         <v>23</v>
@@ -26441,18 +26444,18 @@
         <v>20261707.350193899</v>
       </c>
     </row>
-    <row r="363" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>362</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="E363" s="1" t="s">
         <v>64</v>
@@ -26499,18 +26502,18 @@
         <v>66115113.262213998</v>
       </c>
     </row>
-    <row r="364" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>363</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="E364" s="1" t="s">
         <v>53</v>
@@ -26557,18 +26560,18 @@
         <v>26077578.705306999</v>
       </c>
     </row>
-    <row r="365" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>364</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="E365" s="1" t="s">
         <v>83</v>
@@ -26615,18 +26618,18 @@
         <v>461550881.07191098</v>
       </c>
     </row>
-    <row r="366" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>365</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="E366" s="1" t="s">
         <v>23</v>
@@ -26673,18 +26676,18 @@
         <v>19133104.9658955</v>
       </c>
     </row>
-    <row r="367" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>366</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="E367" s="1" t="s">
         <v>135</v>
@@ -26731,18 +26734,18 @@
         <v>5563045.0416101199</v>
       </c>
     </row>
-    <row r="368" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>367</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="D368" s="1" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="E368" s="1" t="s">
         <v>23</v>
@@ -26789,18 +26792,18 @@
         <v>124088849.007388</v>
       </c>
     </row>
-    <row r="369" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>368</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="D369" s="1" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="E369" s="1" t="s">
         <v>45</v>
@@ -26847,18 +26850,18 @@
         <v>380462790.36022198</v>
       </c>
     </row>
-    <row r="370" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>369</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="E370" s="1" t="s">
         <v>23</v>
@@ -26905,18 +26908,18 @@
         <v>178281430.04623401</v>
       </c>
     </row>
-    <row r="371" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>370</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="D371" s="1" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="E371" s="1" t="s">
         <v>23</v>
@@ -26963,18 +26966,18 @@
         <v>5208445.16680915</v>
       </c>
     </row>
-    <row r="372" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>371</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="D372" s="1" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="E372" s="1" t="s">
         <v>135</v>
@@ -27021,18 +27024,18 @@
         <v>6821959.7104040999</v>
       </c>
     </row>
-    <row r="373" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>372</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="E373" s="1" t="s">
         <v>23</v>
@@ -27079,18 +27082,18 @@
         <v>5660075.1723995302</v>
       </c>
     </row>
-    <row r="374" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>373</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="D374" s="1" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="E374" s="1" t="s">
         <v>83</v>
@@ -27137,18 +27140,18 @@
         <v>83313798.456460893</v>
       </c>
     </row>
-    <row r="375" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>374</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="E375" s="1" t="s">
         <v>111</v>
@@ -27195,18 +27198,18 @@
         <v>53505816.884655297</v>
       </c>
     </row>
-    <row r="376" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>375</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="E376" s="1" t="s">
         <v>33</v>
@@ -27253,18 +27256,18 @@
         <v>134121963.081486</v>
       </c>
     </row>
-    <row r="377" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>376</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="E377" s="1" t="s">
         <v>53</v>
@@ -27311,18 +27314,18 @@
         <v>156120652.26238501</v>
       </c>
     </row>
-    <row r="378" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>377</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="E378" s="1" t="s">
         <v>23</v>
@@ -27369,18 +27372,18 @@
         <v>27494818.161040898</v>
       </c>
     </row>
-    <row r="379" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>378</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="E379" s="1" t="s">
         <v>53</v>
@@ -27427,18 +27430,18 @@
         <v>105516015.84645601</v>
       </c>
     </row>
-    <row r="380" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>379</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="E380" s="1" t="s">
         <v>28</v>
@@ -27485,18 +27488,18 @@
         <v>94785995.945916906</v>
       </c>
     </row>
-    <row r="381" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>380</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="E381" s="1" t="s">
         <v>121</v>
@@ -27543,18 +27546,18 @@
         <v>12591204.633613</v>
       </c>
     </row>
-    <row r="382" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>381</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="E382" s="1" t="s">
         <v>508</v>
@@ -27601,18 +27604,18 @@
         <v>32527837.379808702</v>
       </c>
     </row>
-    <row r="383" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>382</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="E383" s="1" t="s">
         <v>45</v>
@@ -27659,18 +27662,18 @@
         <v>43109443.985439003</v>
       </c>
     </row>
-    <row r="384" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>383</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="E384" s="1" t="s">
         <v>33</v>
@@ -27717,18 +27720,18 @@
         <v>53265655.599541202</v>
       </c>
     </row>
-    <row r="385" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>384</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="E385" s="1" t="s">
         <v>53</v>
@@ -27775,18 +27778,18 @@
         <v>189528580.930825</v>
       </c>
     </row>
-    <row r="386" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>385</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="E386" s="1" t="s">
         <v>83</v>
@@ -27833,18 +27836,18 @@
         <v>376029939.132653</v>
       </c>
     </row>
-    <row r="387" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>386</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="D387" s="1" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="E387" s="1" t="s">
         <v>83</v>
@@ -27891,18 +27894,18 @@
         <v>31032647.224663999</v>
       </c>
     </row>
-    <row r="388" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>387</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="D388" s="1" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="E388" s="1" t="s">
         <v>53</v>
@@ -27949,18 +27952,18 @@
         <v>15901132.7781434</v>
       </c>
     </row>
-    <row r="389" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>388</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="D389" s="1" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="E389" s="1" t="s">
         <v>57</v>
@@ -28007,18 +28010,18 @@
         <v>7052201.1369832298</v>
       </c>
     </row>
-    <row r="390" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>389</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="E390" s="1" t="s">
         <v>83</v>
@@ -28065,18 +28068,18 @@
         <v>5727171.8011633698</v>
       </c>
     </row>
-    <row r="391" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>390</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="E391" s="1" t="s">
         <v>45</v>
@@ -28123,18 +28126,18 @@
         <v>34529932.978080899</v>
       </c>
     </row>
-    <row r="392" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>391</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="D392" s="1" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="E392" s="1" t="s">
         <v>53</v>
@@ -28181,18 +28184,18 @@
         <v>233582043.159466</v>
       </c>
     </row>
-    <row r="393" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>392</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="E393" s="1" t="s">
         <v>23</v>
@@ -28239,18 +28242,18 @@
         <v>8705833.08491542</v>
       </c>
     </row>
-    <row r="394" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>393</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="E394" s="1" t="s">
         <v>53</v>
@@ -28297,18 +28300,18 @@
         <v>16764843.785968199</v>
       </c>
     </row>
-    <row r="395" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>394</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="E395" s="1" t="s">
         <v>83</v>
@@ -28355,18 +28358,18 @@
         <v>27893833.302464601</v>
       </c>
     </row>
-    <row r="396" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>395</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="E396" s="1" t="s">
         <v>33</v>
@@ -28413,18 +28416,18 @@
         <v>4277486.0646591401</v>
       </c>
     </row>
-    <row r="397" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>396</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="E397" s="1" t="s">
         <v>33</v>
@@ -28471,18 +28474,18 @@
         <v>11821910.533501901</v>
       </c>
     </row>
-    <row r="398" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>397</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="E398" s="1" t="s">
         <v>23</v>
@@ -28529,18 +28532,18 @@
         <v>19087893.557199799</v>
       </c>
     </row>
-    <row r="399" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>398</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="D399" s="1" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="E399" s="1" t="s">
         <v>23</v>
@@ -28587,18 +28590,18 @@
         <v>6179323.35776495</v>
       </c>
     </row>
-    <row r="400" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>399</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="D400" s="1" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="E400" s="1" t="s">
         <v>23</v>
@@ -28645,18 +28648,18 @@
         <v>13835472.328535501</v>
       </c>
     </row>
-    <row r="401" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>400</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="E401" s="1" t="s">
         <v>45</v>
@@ -28703,18 +28706,18 @@
         <v>35243368.779719397</v>
       </c>
     </row>
-    <row r="402" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>401</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="D402" s="1" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="E402" s="1" t="s">
         <v>57</v>
@@ -28761,18 +28764,18 @@
         <v>184421550.05613601</v>
       </c>
     </row>
-    <row r="403" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>402</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="D403" s="1" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="E403" s="1" t="s">
         <v>45</v>
@@ -28819,18 +28822,18 @@
         <v>7658765.8274918301</v>
       </c>
     </row>
-    <row r="404" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>403</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="E404" s="1" t="s">
         <v>83</v>
@@ -28877,18 +28880,18 @@
         <v>249155427.71931601</v>
       </c>
     </row>
-    <row r="405" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>404</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="D405" s="1" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="E405" s="1" t="s">
         <v>83</v>
@@ -28935,18 +28938,18 @@
         <v>271067388.24797499</v>
       </c>
     </row>
-    <row r="406" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>405</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="D406" s="1" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="E406" s="1" t="s">
         <v>83</v>
@@ -28993,18 +28996,18 @@
         <v>47164247.441929802</v>
       </c>
     </row>
-    <row r="407" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>406</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="D407" s="1" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="E407" s="1" t="s">
         <v>45</v>
@@ -29051,18 +29054,18 @@
         <v>25414428.792038001</v>
       </c>
     </row>
-    <row r="408" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>407</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="D408" s="1" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="E408" s="1" t="s">
         <v>45</v>
@@ -29109,18 +29112,18 @@
         <v>104466369.438168</v>
       </c>
     </row>
-    <row r="409" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>408</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D409" s="1" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="E409" s="1" t="s">
         <v>33</v>
@@ -29167,18 +29170,18 @@
         <v>44165672.008784503</v>
       </c>
     </row>
-    <row r="410" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <v>409</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="D410" s="1" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="E410" s="1" t="s">
         <v>33</v>
@@ -29225,18 +29228,18 @@
         <v>17644833.485764701</v>
       </c>
     </row>
-    <row r="411" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>410</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D411" s="1" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="E411" s="1" t="s">
         <v>33</v>
@@ -29283,18 +29286,18 @@
         <v>33612846.640355401</v>
       </c>
     </row>
-    <row r="412" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <v>411</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="D412" s="1" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="E412" s="1" t="s">
         <v>23</v>
@@ -29341,18 +29344,18 @@
         <v>43806086.168228298</v>
       </c>
     </row>
-    <row r="413" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>412</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="D413" s="1" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="E413" s="1" t="s">
         <v>23</v>
@@ -29399,18 +29402,18 @@
         <v>21012402.009635702</v>
       </c>
     </row>
-    <row r="414" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>413</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="D414" s="1" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="E414" s="1" t="s">
         <v>28</v>
@@ -29457,18 +29460,18 @@
         <v>33079949.500856601</v>
       </c>
     </row>
-    <row r="415" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>414</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="D415" s="1" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="E415" s="1" t="s">
         <v>53</v>
@@ -29515,18 +29518,18 @@
         <v>139982609.69790301</v>
       </c>
     </row>
-    <row r="416" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <v>415</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="D416" s="1" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="E416" s="1" t="s">
         <v>53</v>
@@ -29573,18 +29576,18 @@
         <v>13774006.5100777</v>
       </c>
     </row>
-    <row r="417" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>416</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="D417" s="1" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="E417" s="1" t="s">
         <v>38</v>
@@ -29631,18 +29634,18 @@
         <v>8116989.2840193398</v>
       </c>
     </row>
-    <row r="418" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>417</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="D418" s="1" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="E418" s="1" t="s">
         <v>45</v>
@@ -29689,18 +29692,18 @@
         <v>49430213.918913104</v>
       </c>
     </row>
-    <row r="419" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <v>418</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="D419" s="1" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="E419" s="1" t="s">
         <v>121</v>
@@ -29747,18 +29750,18 @@
         <v>2404711.0695004198</v>
       </c>
     </row>
-    <row r="420" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>419</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="D420" s="1" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="E420" s="1" t="s">
         <v>53</v>
@@ -29805,18 +29808,18 @@
         <v>20802082.001544502</v>
       </c>
     </row>
-    <row r="421" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>420</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="D421" s="1" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="E421" s="1" t="s">
         <v>23</v>
@@ -29863,18 +29866,18 @@
         <v>13094977.477364101</v>
       </c>
     </row>
-    <row r="422" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <v>421</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="D422" s="1" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="E422" s="1" t="s">
         <v>33</v>
@@ -29921,18 +29924,18 @@
         <v>21103514.034594402</v>
       </c>
     </row>
-    <row r="423" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
         <v>422</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="D423" s="1" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="E423" s="1" t="s">
         <v>23</v>
@@ -29979,18 +29982,18 @@
         <v>66114093.6663872</v>
       </c>
     </row>
-    <row r="424" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
         <v>423</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="D424" s="1" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="E424" s="1" t="s">
         <v>23</v>
@@ -30037,18 +30040,18 @@
         <v>16867030.4935508</v>
       </c>
     </row>
-    <row r="425" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
         <v>424</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="D425" s="1" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="E425" s="1" t="s">
         <v>23</v>
@@ -30095,18 +30098,18 @@
         <v>59919140.4793965</v>
       </c>
     </row>
-    <row r="426" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
         <v>425</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="D426" s="1" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="E426" s="1" t="s">
         <v>28</v>
@@ -30153,18 +30156,18 @@
         <v>273553778.58005297</v>
       </c>
     </row>
-    <row r="427" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <v>426</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="D427" s="1" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="E427" s="1" t="s">
         <v>53</v>
@@ -30211,18 +30214,18 @@
         <v>65220854.741007604</v>
       </c>
     </row>
-    <row r="428" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
         <v>427</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="D428" s="1" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="E428" s="1" t="s">
         <v>508</v>
@@ -30269,18 +30272,18 @@
         <v>18741468.933080599</v>
       </c>
     </row>
-    <row r="429" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
         <v>428</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="D429" s="1" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="E429" s="1" t="s">
         <v>121</v>
@@ -30327,18 +30330,18 @@
         <v>10431296.276270799</v>
       </c>
     </row>
-    <row r="430" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
         <v>429</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="D430" s="1" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="E430" s="1" t="s">
         <v>45</v>
@@ -30385,18 +30388,18 @@
         <v>48152790.735637099</v>
       </c>
     </row>
-    <row r="431" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
         <v>430</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="D431" s="1" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="E431" s="1" t="s">
         <v>121</v>
@@ -30443,18 +30446,18 @@
         <v>6783492.2084093504</v>
       </c>
     </row>
-    <row r="432" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A432" s="1">
         <v>431</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="D432" s="1" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="E432" s="1" t="s">
         <v>45</v>
@@ -30501,18 +30504,18 @@
         <v>14995123.2167555</v>
       </c>
     </row>
-    <row r="433" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
         <v>432</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="D433" s="1" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="E433" s="1" t="s">
         <v>33</v>
@@ -30559,18 +30562,18 @@
         <v>15510726.723572301</v>
       </c>
     </row>
-    <row r="434" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
         <v>433</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="D434" s="1" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="E434" s="1" t="s">
         <v>33</v>
@@ -30617,18 +30620,18 @@
         <v>55362912.283100598</v>
       </c>
     </row>
-    <row r="435" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
         <v>434</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="D435" s="1" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="E435" s="1" t="s">
         <v>45</v>
@@ -30675,18 +30678,18 @@
         <v>26058690.892981</v>
       </c>
     </row>
-    <row r="436" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A436" s="1">
         <v>435</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="D436" s="1" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="E436" s="1" t="s">
         <v>33</v>
@@ -30733,18 +30736,18 @@
         <v>3991846.0579509302</v>
       </c>
     </row>
-    <row r="437" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
         <v>436</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="D437" s="1" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="E437" s="1" t="s">
         <v>33</v>
@@ -30791,18 +30794,18 @@
         <v>49832037.611723199</v>
       </c>
     </row>
-    <row r="438" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A438" s="1">
         <v>437</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="D438" s="1" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="E438" s="1" t="s">
         <v>33</v>
@@ -30849,18 +30852,18 @@
         <v>11669017.0603029</v>
       </c>
     </row>
-    <row r="439" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
         <v>438</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="D439" s="1" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="E439" s="1" t="s">
         <v>45</v>
@@ -30907,18 +30910,18 @@
         <v>55158392.768911101</v>
       </c>
     </row>
-    <row r="440" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A440" s="1">
         <v>439</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="D440" s="1" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="E440" s="1" t="s">
         <v>45</v>
@@ -30965,18 +30968,18 @@
         <v>16231828.7736116</v>
       </c>
     </row>
-    <row r="441" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A441" s="1">
         <v>440</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="D441" s="1" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="E441" s="1" t="s">
         <v>45</v>
@@ -31023,18 +31026,18 @@
         <v>111462400.200552</v>
       </c>
     </row>
-    <row r="442" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A442" s="1">
         <v>441</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="D442" s="1" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="E442" s="1" t="s">
         <v>45</v>
@@ -31081,18 +31084,18 @@
         <v>40346898.1910301</v>
       </c>
     </row>
-    <row r="443" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A443" s="1">
         <v>442</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="D443" s="1" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="E443" s="1" t="s">
         <v>45</v>
@@ -31139,18 +31142,18 @@
         <v>23069850.777139399</v>
       </c>
     </row>
-    <row r="444" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A444" s="1">
         <v>443</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="C444" s="1" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="D444" s="1" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="E444" s="1" t="s">
         <v>135</v>
@@ -31197,18 +31200,18 @@
         <v>7724889.40744696</v>
       </c>
     </row>
-    <row r="445" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A445" s="1">
         <v>444</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="D445" s="1" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="E445" s="1" t="s">
         <v>38</v>
@@ -31255,18 +31258,18 @@
         <v>10417287.665442299</v>
       </c>
     </row>
-    <row r="446" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A446" s="1">
         <v>445</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="C446" s="1" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="D446" s="1" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="E446" s="1" t="s">
         <v>83</v>
@@ -31313,18 +31316,18 @@
         <v>36930000.690362602</v>
       </c>
     </row>
-    <row r="447" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A447" s="1">
         <v>446</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="D447" s="1" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="E447" s="1" t="s">
         <v>83</v>
@@ -31371,18 +31374,18 @@
         <v>13575571.803157801</v>
       </c>
     </row>
-    <row r="448" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A448" s="1">
         <v>447</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="D448" s="1" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="E448" s="1" t="s">
         <v>23</v>
@@ -31429,18 +31432,18 @@
         <v>25172592.950235698</v>
       </c>
     </row>
-    <row r="449" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A449" s="1">
         <v>448</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="C449" s="1" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="D449" s="1" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="E449" s="1" t="s">
         <v>53</v>
@@ -31487,18 +31490,18 @@
         <v>13614008.3381174</v>
       </c>
     </row>
-    <row r="450" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A450" s="1">
         <v>449</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="D450" s="1" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="E450" s="1" t="s">
         <v>33</v>
@@ -31545,18 +31548,18 @@
         <v>27837206.276188198</v>
       </c>
     </row>
-    <row r="451" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A451" s="1">
         <v>450</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="C451" s="1" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="D451" s="1" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="E451" s="1" t="s">
         <v>28</v>
@@ -31603,18 +31606,18 @@
         <v>99442220.578639597</v>
       </c>
     </row>
-    <row r="452" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A452" s="1">
         <v>451</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="D452" s="1" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="E452" s="1" t="s">
         <v>64</v>
@@ -31661,18 +31664,18 @@
         <v>51083976.447846003</v>
       </c>
     </row>
-    <row r="453" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A453" s="1">
         <v>452</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="C453" s="1" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="D453" s="1" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="E453" s="1" t="s">
         <v>121</v>
@@ -31719,18 +31722,18 @@
         <v>18057512.413897999</v>
       </c>
     </row>
-    <row r="454" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A454" s="1">
         <v>453</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="D454" s="1" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="E454" s="1" t="s">
         <v>53</v>
@@ -31777,18 +31780,18 @@
         <v>21258459.807868101</v>
       </c>
     </row>
-    <row r="455" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A455" s="1">
         <v>454</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="D455" s="1" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="E455" s="1" t="s">
         <v>33</v>
@@ -31835,18 +31838,18 @@
         <v>24719840.877822801</v>
       </c>
     </row>
-    <row r="456" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A456" s="1">
         <v>455</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="D456" s="1" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="E456" s="1" t="s">
         <v>45</v>
@@ -31893,18 +31896,18 @@
         <v>22147892.518068001</v>
       </c>
     </row>
-    <row r="457" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A457" s="1">
         <v>456</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="C457" s="1" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="D457" s="1" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="E457" s="1" t="s">
         <v>28</v>
@@ -31951,18 +31954,18 @@
         <v>35524318.817839101</v>
       </c>
     </row>
-    <row r="458" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A458" s="1">
         <v>457</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="D458" s="1" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="E458" s="1" t="s">
         <v>28</v>
@@ -32009,18 +32012,18 @@
         <v>34776647.883451797</v>
       </c>
     </row>
-    <row r="459" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A459" s="1">
         <v>458</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="C459" s="1" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="D459" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="E459" s="1" t="s">
         <v>23</v>
@@ -32067,18 +32070,18 @@
         <v>58696468.826174602</v>
       </c>
     </row>
-    <row r="460" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A460" s="1">
         <v>459</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="D460" s="1" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="E460" s="1" t="s">
         <v>53</v>
@@ -32125,18 +32128,18 @@
         <v>72690523.382163197</v>
       </c>
     </row>
-    <row r="461" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A461" s="1">
         <v>460</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="C461" s="1" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="D461" s="1" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="E461" s="1" t="s">
         <v>83</v>
@@ -32183,18 +32186,18 @@
         <v>38324643.247607</v>
       </c>
     </row>
-    <row r="462" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A462" s="1">
         <v>461</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="C462" s="1" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="D462" s="1" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="E462" s="1" t="s">
         <v>83</v>
@@ -32241,18 +32244,18 @@
         <v>44359118.754685603</v>
       </c>
     </row>
-    <row r="463" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A463" s="1">
         <v>462</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="C463" s="1" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="D463" s="1" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="E463" s="1" t="s">
         <v>53</v>
@@ -32299,18 +32302,18 @@
         <v>238066227.053754</v>
       </c>
     </row>
-    <row r="464" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A464" s="1">
         <v>463</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="C464" s="1" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="D464" s="1" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="E464" s="1" t="s">
         <v>33</v>
@@ -32357,18 +32360,18 @@
         <v>12223980.5435412</v>
       </c>
     </row>
-    <row r="465" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A465" s="1">
         <v>464</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="C465" s="1" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="D465" s="1" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="E465" s="1" t="s">
         <v>23</v>
@@ -32415,18 +32418,18 @@
         <v>9442987.0295534097</v>
       </c>
     </row>
-    <row r="466" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A466" s="1">
         <v>465</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="C466" s="1" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="D466" s="1" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="E466" s="1" t="s">
         <v>135</v>
@@ -32473,18 +32476,18 @@
         <v>12498564.717996901</v>
       </c>
     </row>
-    <row r="467" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A467" s="1">
         <v>466</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="C467" s="1" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="D467" s="1" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="E467" s="1" t="s">
         <v>38</v>
@@ -32531,18 +32534,18 @@
         <v>13748167.7079682</v>
       </c>
     </row>
-    <row r="468" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A468" s="1">
         <v>467</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="C468" s="1" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="D468" s="1" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="E468" s="1" t="s">
         <v>83</v>
@@ -32589,18 +32592,18 @@
         <v>21443974.599983901</v>
       </c>
     </row>
-    <row r="469" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A469" s="1">
         <v>468</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="C469" s="1" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="D469" s="1" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="E469" s="1" t="s">
         <v>45</v>
@@ -32647,18 +32650,18 @@
         <v>215660999.67247</v>
       </c>
     </row>
-    <row r="470" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A470" s="1">
         <v>469</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="C470" s="1" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="D470" s="1" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="E470" s="1" t="s">
         <v>38</v>
@@ -32705,18 +32708,18 @@
         <v>68076770.024208993</v>
       </c>
     </row>
-    <row r="471" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A471" s="1">
         <v>470</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="C471" s="1" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="D471" s="1" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="E471" s="1" t="s">
         <v>57</v>
@@ -32763,18 +32766,18 @@
         <v>45813287.164494</v>
       </c>
     </row>
-    <row r="472" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A472" s="1">
         <v>471</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="D472" s="1" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="E472" s="1" t="s">
         <v>53</v>
@@ -32821,18 +32824,18 @@
         <v>35274239.8868424</v>
       </c>
     </row>
-    <row r="473" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A473" s="1">
         <v>472</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="C473" s="1" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="D473" s="1" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="E473" s="1" t="s">
         <v>28</v>
@@ -32879,18 +32882,18 @@
         <v>373375769.30038702</v>
       </c>
     </row>
-    <row r="474" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A474" s="1">
         <v>473</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="C474" s="1" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="D474" s="1" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="E474" s="1" t="s">
         <v>57</v>
@@ -32899,56 +32902,56 @@
         <v>2637743772</v>
       </c>
       <c r="G474" s="1">
-        <v>52.36</v>
+        <v>49.238591399999997</v>
       </c>
       <c r="H474" s="1" t="s">
         <v>29</v>
       </c>
       <c r="I474" s="1">
-        <v>61233532.621215701</v>
+        <v>57583133.890000001</v>
       </c>
       <c r="J474" s="1">
-        <v>53697639.548666701</v>
+        <v>50496488.359999999</v>
       </c>
       <c r="K474" s="1"/>
       <c r="L474" s="1"/>
       <c r="M474" s="1">
-        <v>49795644.035151497</v>
+        <v>46827107.869999997</v>
       </c>
       <c r="N474" s="1">
-        <v>13.518522000000001</v>
+        <v>12.71262377</v>
       </c>
       <c r="O474" s="1">
-        <v>13.933039000000001</v>
+        <v>13.102429600000001</v>
       </c>
       <c r="P474" s="1">
-        <v>51743781.262199998</v>
+        <v>48659108.119999997</v>
       </c>
       <c r="Q474" s="1">
-        <v>16.474829</v>
+        <v>15.492692379999999</v>
       </c>
       <c r="R474" s="1">
-        <v>54189662.870302998</v>
+        <v>0</v>
       </c>
       <c r="S474" s="1">
-        <v>138112263901.92001</v>
+        <v>129878787807.40276</v>
       </c>
       <c r="T474" s="1">
-        <v>63145716.4412864</v>
-      </c>
-    </row>
-    <row r="475" spans="1:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A475" s="1">
         <v>474</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="C475" s="1" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="D475" s="1" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="E475" s="1" t="s">
         <v>28</v>
@@ -32995,18 +32998,18 @@
         <v>28516371.935224801</v>
       </c>
     </row>
-    <row r="476" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A476" s="1">
         <v>475</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="C476" s="1" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="D476" s="1" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="E476" s="1" t="s">
         <v>23</v>
@@ -33053,18 +33056,18 @@
         <v>15295564.6558738</v>
       </c>
     </row>
-    <row r="477" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A477" s="1">
         <v>476</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="C477" s="1" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="D477" s="1" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="E477" s="1" t="s">
         <v>508</v>
@@ -33111,18 +33114,18 @@
         <v>31007463.622887399</v>
       </c>
     </row>
-    <row r="478" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A478" s="1">
         <v>477</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="C478" s="1" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D478" s="1" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="E478" s="1" t="s">
         <v>508</v>
@@ -33169,18 +33172,18 @@
         <v>8308738.5850508204</v>
       </c>
     </row>
-    <row r="479" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A479" s="1">
         <v>478</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="C479" s="1" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="D479" s="1" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="E479" s="1" t="s">
         <v>45</v>
@@ -33227,18 +33230,18 @@
         <v>42032444.181631602</v>
       </c>
     </row>
-    <row r="480" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A480" s="1">
         <v>479</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="C480" s="1" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="D480" s="1" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="E480" s="1" t="s">
         <v>121</v>
@@ -33285,18 +33288,18 @@
         <v>7321481.8106342899</v>
       </c>
     </row>
-    <row r="481" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A481" s="1">
         <v>480</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="C481" s="1" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="D481" s="1" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="E481" s="1" t="s">
         <v>53</v>
@@ -33343,18 +33346,18 @@
         <v>54455934.867097497</v>
       </c>
     </row>
-    <row r="482" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A482" s="1">
         <v>481</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="C482" s="1" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="D482" s="1" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="E482" s="1" t="s">
         <v>155</v>
@@ -33401,18 +33404,18 @@
         <v>9060374.0084394999</v>
       </c>
     </row>
-    <row r="483" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A483" s="1">
         <v>482</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="C483" s="1" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="D483" s="1" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="E483" s="1" t="s">
         <v>135</v>
@@ -33459,18 +33462,18 @@
         <v>47039790.4948567</v>
       </c>
     </row>
-    <row r="484" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A484" s="1">
         <v>483</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="C484" s="1" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="D484" s="1" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="E484" s="1" t="s">
         <v>53</v>
@@ -33517,18 +33520,18 @@
         <v>119926911.732161</v>
       </c>
     </row>
-    <row r="485" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A485" s="1">
         <v>484</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="C485" s="1" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="D485" s="1" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="E485" s="1" t="s">
         <v>23</v>
@@ -33575,18 +33578,18 @@
         <v>49364332.061375096</v>
       </c>
     </row>
-    <row r="486" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A486" s="1">
         <v>485</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="C486" s="1" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="D486" s="1" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="E486" s="1" t="s">
         <v>155</v>
@@ -33633,18 +33636,18 @@
         <v>11030886.414287901</v>
       </c>
     </row>
-    <row r="487" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A487" s="1">
         <v>486</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="C487" s="1" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="D487" s="1" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="E487" s="1" t="s">
         <v>83</v>
@@ -33691,18 +33694,18 @@
         <v>104503890.649014</v>
       </c>
     </row>
-    <row r="488" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A488" s="1">
         <v>487</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="C488" s="1" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="D488" s="1" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="E488" s="1" t="s">
         <v>33</v>
@@ -33749,18 +33752,18 @@
         <v>83782644.254775703</v>
       </c>
     </row>
-    <row r="489" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A489" s="1">
         <v>488</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="C489" s="1" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="D489" s="1" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="E489" s="1" t="s">
         <v>83</v>
@@ -33807,18 +33810,18 @@
         <v>64013895.233723097</v>
       </c>
     </row>
-    <row r="490" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A490" s="1">
         <v>489</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="C490" s="1" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="D490" s="1" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="E490" s="1" t="s">
         <v>508</v>
@@ -33865,18 +33868,18 @@
         <v>25058669.519553501</v>
       </c>
     </row>
-    <row r="491" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A491" s="1">
         <v>490</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="C491" s="1" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="D491" s="1" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="E491" s="1" t="s">
         <v>38</v>
@@ -33923,18 +33926,18 @@
         <v>10421719.621392399</v>
       </c>
     </row>
-    <row r="492" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A492" s="1">
         <v>491</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="C492" s="1" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="D492" s="1" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="E492" s="1" t="s">
         <v>23</v>
@@ -33981,18 +33984,18 @@
         <v>20480683.626412801</v>
       </c>
     </row>
-    <row r="493" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A493" s="1">
         <v>492</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="C493" s="1" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="D493" s="1" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="E493" s="1" t="s">
         <v>23</v>
@@ -34039,18 +34042,18 @@
         <v>18685502.0284908</v>
       </c>
     </row>
-    <row r="494" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A494" s="1">
         <v>493</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="C494" s="1" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="D494" s="1" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="E494" s="1" t="s">
         <v>155</v>
@@ -34097,18 +34100,18 @@
         <v>5830430.4162761997</v>
       </c>
     </row>
-    <row r="495" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A495" s="1">
         <v>494</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="C495" s="1" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="D495" s="1" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="E495" s="1" t="s">
         <v>23</v>
@@ -34155,18 +34158,18 @@
         <v>16418180.656598501</v>
       </c>
     </row>
-    <row r="496" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A496" s="1">
         <v>495</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="C496" s="1" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="D496" s="1" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="E496" s="1" t="s">
         <v>57</v>
@@ -34213,18 +34216,18 @@
         <v>98733923.395418704</v>
       </c>
     </row>
-    <row r="497" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A497" s="1">
         <v>496</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="C497" s="1" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="D497" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="E497" s="1" t="s">
         <v>23</v>
@@ -34271,18 +34274,18 @@
         <v>22303248.852157801</v>
       </c>
     </row>
-    <row r="498" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A498" s="1">
         <v>497</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="C498" s="1" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="D498" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="E498" s="1" t="s">
         <v>121</v>
@@ -34329,18 +34332,18 @@
         <v>16431691.6066058</v>
       </c>
     </row>
-    <row r="499" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A499" s="1">
         <v>498</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="C499" s="1" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="D499" s="1" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="E499" s="1" t="s">
         <v>83</v>
@@ -34387,18 +34390,18 @@
         <v>35541095.3339165</v>
       </c>
     </row>
-    <row r="500" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A500" s="1">
         <v>499</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="C500" s="1" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="D500" s="1" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="E500" s="1" t="s">
         <v>135</v>
@@ -34445,18 +34448,18 @@
         <v>27298532.119479202</v>
       </c>
     </row>
-    <row r="501" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A501" s="1">
         <v>500</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C501" s="1" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="D501" s="1" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="E501" s="1" t="s">
         <v>45</v>

--- a/GUI + Reviews/202512/Europe 500.xlsx
+++ b/GUI + Reviews/202512/Europe 500.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\PM-Indices-IndexOperations\Review Files\202512\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92D1FC59-8FE5-462E-8836-166173828683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3C0A640-C823-46A4-AE0C-2C5224D051A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="15820" xr2:uid="{17EBB7C0-5272-4E12-BD74-BAEFF5600375}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{2097C732-5B43-4C8B-928B-4949F0E86EB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5073,29 +5073,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{19710D83-5C0E-4BDD-8179-ADC99DFF651A}" name="Universe" displayName="Universe" ref="A1:T501" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A1:T501" xr:uid="{19710D83-5C0E-4BDD-8179-ADC99DFF651A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4A5ED7FF-ED6E-4C71-B637-8524FEB96AD6}" name="Universe" displayName="Universe" ref="A1:T501" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:T501" xr:uid="{4A5ED7FF-ED6E-4C71-B637-8524FEB96AD6}"/>
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{E10E2FD6-5403-4FBD-A4F9-32C7D51F47BC}" name="Rank" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{A7153490-9AEC-4B0C-852A-757AD2572687}" name="Ticker" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{64A44BB7-2E82-4233-A0A8-E98970DAC909}" name="Name" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{028D82BA-A89B-4342-90FE-25F52A76D350}" name="ISIN" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{0B9561C9-62F7-42A7-B120-7B478497C6C7}" name="MIC" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{40F4CB05-179F-4E04-A069-60DCF06CFFA9}" name="NOSH" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{DA68A5BD-22A5-47CB-92B3-E0BD6A9BF26D}" name="Price (EUR) " dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{7A9FE29F-4BF1-419D-9DBB-86D4C00D098F}" name="Currency (Local)" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{FCBF5C85-52C1-41BB-88CA-0F4AAD1F6430}" name="12 month aver. turnover EUR" dataDxfId="13"/>
-    <tableColumn id="10" xr3:uid="{F25B306E-2095-488D-B9FC-92BF1D100807}" name="20 days aver. turn EUR" dataDxfId="12"/>
-    <tableColumn id="11" xr3:uid="{AB750AD4-DCD2-48D0-A38F-7B36DF1BA4EA}" name="10 days aver. turn EUR" dataDxfId="11"/>
-    <tableColumn id="12" xr3:uid="{FF60D079-9880-4C3F-88BE-29AA583C148C}" name="5 days aver. turn EUR" dataDxfId="10"/>
-    <tableColumn id="13" xr3:uid="{D039BA89-A029-471F-91F8-AB12682F8995}" name="6 month aver. turnover EUR" dataDxfId="9"/>
-    <tableColumn id="14" xr3:uid="{1E25564F-1389-4886-AF5D-9D46987E7AB5}" name="126 days volatility" dataDxfId="8"/>
-    <tableColumn id="15" xr3:uid="{82EFE555-0774-4828-8B37-B39877825744}" name="100 days volatility" dataDxfId="7"/>
-    <tableColumn id="16" xr3:uid="{46B49FCC-E93E-4DE3-A549-6686EC897F9A}" name="100 days aver. turn EUR" dataDxfId="6"/>
-    <tableColumn id="17" xr3:uid="{FEC88A2E-3D1F-4CE3-9F03-56604ECD91AD}" name="180 days volatility" dataDxfId="5"/>
-    <tableColumn id="18" xr3:uid="{CABDF5A1-111C-4D27-BC6C-EE42737AEBA5}" name="3 months aver. Turnover EUR" dataDxfId="4"/>
-    <tableColumn id="19" xr3:uid="{C1B62590-06FA-40ED-B5E1-8CD10C26E969}" name="mcap" dataDxfId="3"/>
-    <tableColumn id="20" xr3:uid="{530FE29C-64AB-4CA0-97CB-344076A4A249}" name="3 months aver. Turnover USD" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{CEFFFE37-4A74-4664-8EF8-DE50A8D3DA9E}" name="Rank" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{80E127A1-D035-49CC-A7F2-87705B1AAFDB}" name="Ticker" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{07A04B8F-4E02-4705-86B4-5165837ED3D5}" name="Name" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{583F0034-256E-4EB0-AAA8-DADE1642D647}" name="ISIN" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{5C8AFA66-84FE-45F8-9610-1AA9221609CA}" name="MIC" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{5B38C988-37BE-44FB-A904-764DEFCC2129}" name="NOSH" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{A6F20B06-1307-4A83-9BA8-1B3E201AEF22}" name="Price (EUR) " dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{B6B6561C-1D5B-42E9-870C-0E46F264FE6E}" name="Currency (Local)" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{89CE5EB5-32AF-41CB-B0D2-E1BF934D8F09}" name="12 month aver. turnover EUR" dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{AEA9845F-2551-4E60-9C87-8F41457C53B6}" name="20 days aver. turn EUR" dataDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{22CA0890-B0BA-4D10-9166-00D8B8324E9B}" name="10 days aver. turn EUR" dataDxfId="11"/>
+    <tableColumn id="12" xr3:uid="{E0561B4E-7154-4437-9521-36A970F27530}" name="5 days aver. turn EUR" dataDxfId="10"/>
+    <tableColumn id="13" xr3:uid="{2615061D-0905-477B-91B0-E10B92AABE9E}" name="6 month aver. turnover EUR" dataDxfId="9"/>
+    <tableColumn id="14" xr3:uid="{557714B9-4CFF-458C-86E7-D4438B2D7AEF}" name="126 days volatility" dataDxfId="8"/>
+    <tableColumn id="15" xr3:uid="{15489679-6BA3-4A83-BCA1-DEE850540404}" name="100 days volatility" dataDxfId="7"/>
+    <tableColumn id="16" xr3:uid="{2E10D644-BA0C-4233-BE39-B7AF11D3C838}" name="100 days aver. turn EUR" dataDxfId="6"/>
+    <tableColumn id="17" xr3:uid="{A78CA10B-DDDC-4188-806C-B8C44DDE0DD8}" name="180 days volatility" dataDxfId="5"/>
+    <tableColumn id="18" xr3:uid="{C184C481-E208-4B7F-84CC-D619EC66ABC5}" name="3 months aver. Turnover EUR" dataDxfId="4"/>
+    <tableColumn id="19" xr3:uid="{0EF592D3-0CEE-47E2-8B97-00FF078C91F0}" name="mcap" dataDxfId="3"/>
+    <tableColumn id="20" xr3:uid="{AC73A6FD-6C40-45CB-8928-9695C5F1B514}" name="3 months aver. Turnover USD" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5417,34 +5417,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59C5456E-ABA1-4AF8-8988-4435D22CAF7B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F43A91-7DB9-4387-8021-9A424707A9F7}">
   <dimension ref="A1:T501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.07421875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.4609375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.53515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.53515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.4609375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.3046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.53515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.3046875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.69140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.3046875" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.921875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.3046875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5506,7 +5506,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -5564,7 +5564,7 @@
         <v>62193238.2715085</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -5622,7 +5622,7 @@
         <v>26464460.1663213</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>10826195.627906401</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -5738,7 +5738,7 @@
         <v>86128671.132137001</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -5796,7 +5796,7 @@
         <v>5604798.4842202403</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -5854,7 +5854,7 @@
         <v>158048185.59731099</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -5912,7 +5912,7 @@
         <v>7983942.7410139795</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -5970,7 +5970,7 @@
         <v>9626963.10094372</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -6028,7 +6028,7 @@
         <v>74011533.285271406</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -6086,7 +6086,7 @@
         <v>14937172.8155508</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -6144,7 +6144,7 @@
         <v>14870504.708213501</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -6202,7 +6202,7 @@
         <v>32368096.481348298</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -6260,7 +6260,7 @@
         <v>6529131.6772357104</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -6318,7 +6318,7 @@
         <v>25638744.9053693</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -6376,7 +6376,7 @@
         <v>10530597.9193963</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -6434,7 +6434,7 @@
         <v>21533420.170928001</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -6492,7 +6492,7 @@
         <v>115732872.619123</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -6550,7 +6550,7 @@
         <v>20343635.175954401</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -6608,7 +6608,7 @@
         <v>10291722.1112567</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -6666,7 +6666,7 @@
         <v>106864711.33240899</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -6724,7 +6724,7 @@
         <v>6202526.7586991899</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -6782,7 +6782,7 @@
         <v>39166035.996399403</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -6840,7 +6840,7 @@
         <v>37403210.168830097</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -6898,7 +6898,7 @@
         <v>17054765.9102805</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -6956,7 +6956,7 @@
         <v>68591726.965471104</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -7014,7 +7014,7 @@
         <v>38604765.560353503</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -7072,7 +7072,7 @@
         <v>114554343.79323301</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -7130,7 +7130,7 @@
         <v>196902206.79192001</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -7188,7 +7188,7 @@
         <v>22032961.209808301</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -7246,7 +7246,7 @@
         <v>27850274.641827401</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -7304,7 +7304,7 @@
         <v>93484255.813070297</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -7362,7 +7362,7 @@
         <v>25603802.704050802</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -7420,7 +7420,7 @@
         <v>4986890.6477419101</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -7478,7 +7478,7 @@
         <v>196175264.25025299</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -7536,7 +7536,7 @@
         <v>4584855.4659092799</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -7594,7 +7594,7 @@
         <v>26113386.405836798</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -7652,7 +7652,7 @@
         <v>46709167.596201099</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -7710,7 +7710,7 @@
         <v>11376216.524367001</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -7768,7 +7768,7 @@
         <v>5143482.27414372</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -7826,7 +7826,7 @@
         <v>85742457.639205396</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -7884,7 +7884,7 @@
         <v>29069961.6932142</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -7942,7 +7942,7 @@
         <v>39375051.176587097</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -8000,7 +8000,7 @@
         <v>70415381.574164093</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -8058,7 +8058,7 @@
         <v>83818950.664562598</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -8116,7 +8116,7 @@
         <v>49525756.627262801</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -8174,7 +8174,7 @@
         <v>93759694.750503898</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -8232,7 +8232,7 @@
         <v>628790744.55153298</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -8290,7 +8290,7 @@
         <v>28518085.073169298</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -8348,7 +8348,7 @@
         <v>47259857.141617998</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -8406,7 +8406,7 @@
         <v>18003472.946546599</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -8464,7 +8464,7 @@
         <v>219633419.72317401</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -8522,7 +8522,7 @@
         <v>74138471.4579072</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -8580,7 +8580,7 @@
         <v>18172411.928061198</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -8638,7 +8638,7 @@
         <v>18551186.3402256</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -8696,7 +8696,7 @@
         <v>12181076.340442801</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -8754,7 +8754,7 @@
         <v>7954503.5293308999</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -8812,7 +8812,7 @@
         <v>43837470.482757099</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -8870,7 +8870,7 @@
         <v>9716515.6630968601</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -8928,7 +8928,7 @@
         <v>176913247.69380099</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -8986,7 +8986,7 @@
         <v>10329901.4169861</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -9044,7 +9044,7 @@
         <v>39005921.812812701</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -9102,7 +9102,7 @@
         <v>51753046.606706403</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -9160,7 +9160,7 @@
         <v>21646150.1627337</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -9218,7 +9218,7 @@
         <v>93641092.133531496</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -9276,7 +9276,7 @@
         <v>7846962.0171422204</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -9334,7 +9334,7 @@
         <v>21774070.150373701</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -9392,7 +9392,7 @@
         <v>286921509.29607397</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -9450,7 +9450,7 @@
         <v>100818039.01477601</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -9508,7 +9508,7 @@
         <v>57007826.622915402</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -9566,7 +9566,7 @@
         <v>253325577.49467301</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -9624,7 +9624,7 @@
         <v>31954007.670451399</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -9682,7 +9682,7 @@
         <v>24645872.701529101</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -9740,7 +9740,7 @@
         <v>129991740.619543</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -9798,7 +9798,7 @@
         <v>19323518.594131101</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -9856,7 +9856,7 @@
         <v>18829093.415523998</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -9914,7 +9914,7 @@
         <v>108191934.593705</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -9972,7 +9972,7 @@
         <v>17643251.667031601</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -10030,7 +10030,7 @@
         <v>69761047.993120596</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -10088,7 +10088,7 @@
         <v>206870092.04022601</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -10146,7 +10146,7 @@
         <v>70226437.618759006</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -10204,7 +10204,7 @@
         <v>21160968.218863901</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -10262,7 +10262,7 @@
         <v>8511177.0973675996</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -10320,7 +10320,7 @@
         <v>35662448.505756803</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -10378,7 +10378,7 @@
         <v>13937047.1058493</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -10436,7 +10436,7 @@
         <v>32258314.4473093</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -10494,7 +10494,7 @@
         <v>10129627.898457799</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -10552,7 +10552,7 @@
         <v>11705645.0032946</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -10610,7 +10610,7 @@
         <v>9416024.6575329807</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -10668,7 +10668,7 @@
         <v>14416670.843463801</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -10726,7 +10726,7 @@
         <v>9926110.5675690901</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -10784,7 +10784,7 @@
         <v>96887741.330895305</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -10842,7 +10842,7 @@
         <v>243014105.80956301</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -10900,7 +10900,7 @@
         <v>42686409.234442897</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -10958,7 +10958,7 @@
         <v>34427168.6140991</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -11016,7 +11016,7 @@
         <v>121882642.41874801</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -11074,7 +11074,7 @@
         <v>137925878.805994</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -11132,7 +11132,7 @@
         <v>5085670.9425248401</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -11190,7 +11190,7 @@
         <v>17559125.184292998</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -11248,7 +11248,7 @@
         <v>165981171.29705301</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -11306,7 +11306,7 @@
         <v>12514031.6749867</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -11364,7 +11364,7 @@
         <v>60516741.810162596</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -11422,7 +11422,7 @@
         <v>34356229.027399696</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -11480,7 +11480,7 @@
         <v>22617931.986262102</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -11538,7 +11538,7 @@
         <v>17889577.644311599</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -11596,7 +11596,7 @@
         <v>27905628.0882218</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -11654,7 +11654,7 @@
         <v>27903209.310544901</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -11712,7 +11712,7 @@
         <v>78123008.163468003</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -11770,7 +11770,7 @@
         <v>46839594.640638903</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -11828,7 +11828,7 @@
         <v>63352843.131319202</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -11886,7 +11886,7 @@
         <v>22296186.405629601</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -11944,7 +11944,7 @@
         <v>36871077.798372298</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -12002,7 +12002,7 @@
         <v>14509457.780684</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -12060,7 +12060,7 @@
         <v>35548691.2316847</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -12118,7 +12118,7 @@
         <v>5273600.3095694296</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -12176,7 +12176,7 @@
         <v>32692978.378703501</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -12234,7 +12234,7 @@
         <v>160466057.30153701</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -12292,7 +12292,7 @@
         <v>23109066.656636</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -12350,7 +12350,7 @@
         <v>4756284.3246490704</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -12408,7 +12408,7 @@
         <v>22856963.769924201</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -12466,7 +12466,7 @@
         <v>137861147.53916299</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -12524,7 +12524,7 @@
         <v>57391659.776871704</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -12582,7 +12582,7 @@
         <v>41084452.856529303</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -12640,7 +12640,7 @@
         <v>18226395.976751301</v>
       </c>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -12698,7 +12698,7 @@
         <v>15779156.306249</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -12756,7 +12756,7 @@
         <v>6954787.1301461002</v>
       </c>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -12814,7 +12814,7 @@
         <v>5010991.9309343901</v>
       </c>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -12872,7 +12872,7 @@
         <v>82418820.723665595</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -12930,7 +12930,7 @@
         <v>24301872.545799602</v>
       </c>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -12988,7 +12988,7 @@
         <v>21704225.058465902</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -13046,7 +13046,7 @@
         <v>11503476.1689096</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -13104,7 +13104,7 @@
         <v>47356527.306202903</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -13162,7 +13162,7 @@
         <v>87189947.560488701</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -13220,7 +13220,7 @@
         <v>36030906.129439399</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -13278,7 +13278,7 @@
         <v>17801641.064172499</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -13336,7 +13336,7 @@
         <v>58683000.949091703</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -13394,7 +13394,7 @@
         <v>20403952.7708163</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -13452,7 +13452,7 @@
         <v>22147223.294928201</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -13510,7 +13510,7 @@
         <v>207685531.526611</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -13568,7 +13568,7 @@
         <v>93941883.061751395</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -13626,7 +13626,7 @@
         <v>71999492.791794896</v>
       </c>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -13684,7 +13684,7 @@
         <v>195339529.84979901</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -13742,7 +13742,7 @@
         <v>89726181.703338295</v>
       </c>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -13800,7 +13800,7 @@
         <v>8636841.5969372895</v>
       </c>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -13858,7 +13858,7 @@
         <v>18059659.862087101</v>
       </c>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -13916,7 +13916,7 @@
         <v>39634676.145481199</v>
       </c>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -13974,7 +13974,7 @@
         <v>56032442.922977298</v>
       </c>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -14032,7 +14032,7 @@
         <v>61064932.562312499</v>
       </c>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -14090,7 +14090,7 @@
         <v>69301798.764840096</v>
       </c>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -14148,7 +14148,7 @@
         <v>18634131.2961918</v>
       </c>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -14206,7 +14206,7 @@
         <v>26229885.021113802</v>
       </c>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -14264,7 +14264,7 @@
         <v>41149381.274617396</v>
       </c>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -14322,7 +14322,7 @@
         <v>18368607.126767401</v>
       </c>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -14380,7 +14380,7 @@
         <v>27421460.150026601</v>
       </c>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -14438,7 +14438,7 @@
         <v>11123013.0874385</v>
       </c>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -14496,7 +14496,7 @@
         <v>7001269.8666899297</v>
       </c>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -14554,7 +14554,7 @@
         <v>15635697.707981501</v>
       </c>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -14612,7 +14612,7 @@
         <v>8896551.6462977193</v>
       </c>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -14670,7 +14670,7 @@
         <v>12497925.8644452</v>
       </c>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -14728,7 +14728,7 @@
         <v>23841929.5477065</v>
       </c>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -14786,7 +14786,7 @@
         <v>173125633.060821</v>
       </c>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -14844,7 +14844,7 @@
         <v>94211911.034526795</v>
       </c>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -14902,7 +14902,7 @@
         <v>187677318.683135</v>
       </c>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -14960,7 +14960,7 @@
         <v>12702189.9190831</v>
       </c>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -15018,7 +15018,7 @@
         <v>28604088.7902629</v>
       </c>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -15076,7 +15076,7 @@
         <v>40224109.893526301</v>
       </c>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -15134,7 +15134,7 @@
         <v>66579661.748341002</v>
       </c>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -15192,7 +15192,7 @@
         <v>57381159.0228782</v>
       </c>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -15250,7 +15250,7 @@
         <v>31962163.378448799</v>
       </c>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -15308,7 +15308,7 @@
         <v>128240726.61354201</v>
       </c>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -15366,7 +15366,7 @@
         <v>33946323.807981104</v>
       </c>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -15424,7 +15424,7 @@
         <v>18760218.054551098</v>
       </c>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -15482,7 +15482,7 @@
         <v>37697742.792461701</v>
       </c>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -15540,7 +15540,7 @@
         <v>44730630.198727697</v>
       </c>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -15598,7 +15598,7 @@
         <v>20192181.8741065</v>
       </c>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -15656,7 +15656,7 @@
         <v>19831143.265164498</v>
       </c>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -15714,7 +15714,7 @@
         <v>53659843.291723996</v>
       </c>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -15772,7 +15772,7 @@
         <v>10286681.716591099</v>
       </c>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -15830,7 +15830,7 @@
         <v>12220150.906341201</v>
       </c>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -15888,7 +15888,7 @@
         <v>228887602.858601</v>
       </c>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -15946,7 +15946,7 @@
         <v>78004976.785517395</v>
       </c>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -16004,7 +16004,7 @@
         <v>35827355.485031597</v>
       </c>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -16062,7 +16062,7 @@
         <v>9479255.9263503607</v>
       </c>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -16120,7 +16120,7 @@
         <v>112794.81500183399</v>
       </c>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -16178,7 +16178,7 @@
         <v>11352893.501126001</v>
       </c>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -16236,7 +16236,7 @@
         <v>26754344.346135799</v>
       </c>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -16294,7 +16294,7 @@
         <v>8758389.5432763994</v>
       </c>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -16352,7 +16352,7 @@
         <v>30791339.970476702</v>
       </c>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -16410,7 +16410,7 @@
         <v>38009452.814037599</v>
       </c>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -16468,7 +16468,7 @@
         <v>42844090.831971802</v>
       </c>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -16526,7 +16526,7 @@
         <v>122870997.63624801</v>
       </c>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -16584,7 +16584,7 @@
         <v>9823817.9232734293</v>
       </c>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -16642,7 +16642,7 @@
         <v>27646243.243147101</v>
       </c>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -16700,7 +16700,7 @@
         <v>11146698.458584599</v>
       </c>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -16758,7 +16758,7 @@
         <v>8383617.1785413204</v>
       </c>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -16816,7 +16816,7 @@
         <v>28261011.471990298</v>
       </c>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -16874,7 +16874,7 @@
         <v>43279822.093941301</v>
       </c>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -16932,7 +16932,7 @@
         <v>14153034.2508728</v>
       </c>
     </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -16990,7 +16990,7 @@
         <v>86287613.120007694</v>
       </c>
     </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -17048,7 +17048,7 @@
         <v>44312819.106072098</v>
       </c>
     </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -17106,7 +17106,7 @@
         <v>14681894.7653076</v>
       </c>
     </row>
-    <row r="202" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -17164,7 +17164,7 @@
         <v>10288669.156579901</v>
       </c>
     </row>
-    <row r="203" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -17222,7 +17222,7 @@
         <v>9545440.1789268106</v>
       </c>
     </row>
-    <row r="204" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -17280,7 +17280,7 @@
         <v>79248085.594575003</v>
       </c>
     </row>
-    <row r="205" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -17338,7 +17338,7 @@
         <v>7976480.3828598596</v>
       </c>
     </row>
-    <row r="206" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -17396,7 +17396,7 @@
         <v>15712323.266307199</v>
       </c>
     </row>
-    <row r="207" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -17454,7 +17454,7 @@
         <v>119722314.01663999</v>
       </c>
     </row>
-    <row r="208" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -17512,7 +17512,7 @@
         <v>17047447.201814398</v>
       </c>
     </row>
-    <row r="209" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -17570,7 +17570,7 @@
         <v>130740882.18537501</v>
       </c>
     </row>
-    <row r="210" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -17628,7 +17628,7 @@
         <v>17392151.250797998</v>
       </c>
     </row>
-    <row r="211" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -17686,7 +17686,7 @@
         <v>71396295.110774904</v>
       </c>
     </row>
-    <row r="212" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -17744,7 +17744,7 @@
         <v>23363531.981298398</v>
       </c>
     </row>
-    <row r="213" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -17802,7 +17802,7 @@
         <v>30252378.632888999</v>
       </c>
     </row>
-    <row r="214" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -17860,7 +17860,7 @@
         <v>71836006.321187899</v>
       </c>
     </row>
-    <row r="215" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -17918,7 +17918,7 @@
         <v>64625963.888559699</v>
       </c>
     </row>
-    <row r="216" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -17976,7 +17976,7 @@
         <v>16957825.974252298</v>
       </c>
     </row>
-    <row r="217" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -18034,7 +18034,7 @@
         <v>32049005.612376198</v>
       </c>
     </row>
-    <row r="218" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -18092,7 +18092,7 @@
         <v>36678023.522991903</v>
       </c>
     </row>
-    <row r="219" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -18150,7 +18150,7 @@
         <v>62942364.179218702</v>
       </c>
     </row>
-    <row r="220" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -18208,7 +18208,7 @@
         <v>12427795.170078401</v>
       </c>
     </row>
-    <row r="221" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -18266,7 +18266,7 @@
         <v>132334098.846276</v>
       </c>
     </row>
-    <row r="222" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -18324,7 +18324,7 @@
         <v>34600661.218282796</v>
       </c>
     </row>
-    <row r="223" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -18382,7 +18382,7 @@
         <v>11992955.339787301</v>
       </c>
     </row>
-    <row r="224" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -18440,7 +18440,7 @@
         <v>12895597.7330164</v>
       </c>
     </row>
-    <row r="225" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -18498,7 +18498,7 @@
         <v>18616217.258075301</v>
       </c>
     </row>
-    <row r="226" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -18556,7 +18556,7 @@
         <v>94906140.899781495</v>
       </c>
     </row>
-    <row r="227" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -18614,7 +18614,7 @@
         <v>14644735.2765182</v>
       </c>
     </row>
-    <row r="228" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -18672,7 +18672,7 @@
         <v>220962567.83528101</v>
       </c>
     </row>
-    <row r="229" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -18730,7 +18730,7 @@
         <v>161812322.55946299</v>
       </c>
     </row>
-    <row r="230" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -18788,7 +18788,7 @@
         <v>16732184.624154299</v>
       </c>
     </row>
-    <row r="231" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -18846,7 +18846,7 @@
         <v>10838926.5034461</v>
       </c>
     </row>
-    <row r="232" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -18904,7 +18904,7 @@
         <v>27130606.973647799</v>
       </c>
     </row>
-    <row r="233" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -18962,7 +18962,7 @@
         <v>13672618.9027247</v>
       </c>
     </row>
-    <row r="234" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -19020,7 +19020,7 @@
         <v>40285399.555010602</v>
       </c>
     </row>
-    <row r="235" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -19078,7 +19078,7 @@
         <v>141326631.93808499</v>
       </c>
     </row>
-    <row r="236" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -19136,7 +19136,7 @@
         <v>41510373.511022203</v>
       </c>
     </row>
-    <row r="237" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -19194,7 +19194,7 @@
         <v>13079048.783596</v>
       </c>
     </row>
-    <row r="238" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -19252,7 +19252,7 @@
         <v>10193704.947180999</v>
       </c>
     </row>
-    <row r="239" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -19310,7 +19310,7 @@
         <v>146351395.30293599</v>
       </c>
     </row>
-    <row r="240" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -19368,7 +19368,7 @@
         <v>21420115.9905423</v>
       </c>
     </row>
-    <row r="241" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -19426,7 +19426,7 @@
         <v>185876374.37553799</v>
       </c>
     </row>
-    <row r="242" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -19484,7 +19484,7 @@
         <v>33042759.5506678</v>
       </c>
     </row>
-    <row r="243" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -19542,7 +19542,7 @@
         <v>11316306.7015</v>
       </c>
     </row>
-    <row r="244" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -19600,7 +19600,7 @@
         <v>19036593.085661501</v>
       </c>
     </row>
-    <row r="245" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -19658,7 +19658,7 @@
         <v>329523646.21244597</v>
       </c>
     </row>
-    <row r="246" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -19716,7 +19716,7 @@
         <v>54278470.073206998</v>
       </c>
     </row>
-    <row r="247" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -19774,7 +19774,7 @@
         <v>9886256.3324825093</v>
       </c>
     </row>
-    <row r="248" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -19832,7 +19832,7 @@
         <v>81659425.851955697</v>
       </c>
     </row>
-    <row r="249" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -19890,7 +19890,7 @@
         <v>10164291.477043699</v>
       </c>
     </row>
-    <row r="250" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -19948,7 +19948,7 @@
         <v>9371875.8321179897</v>
       </c>
     </row>
-    <row r="251" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -20006,7 +20006,7 @@
         <v>25669456.921825301</v>
       </c>
     </row>
-    <row r="252" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -20064,7 +20064,7 @@
         <v>6956087.7747435002</v>
       </c>
     </row>
-    <row r="253" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -20122,7 +20122,7 @@
         <v>31619089.749928098</v>
       </c>
     </row>
-    <row r="254" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -20180,7 +20180,7 @@
         <v>20426781.785667099</v>
       </c>
     </row>
-    <row r="255" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -20238,7 +20238,7 @@
         <v>17638061.149832699</v>
       </c>
     </row>
-    <row r="256" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -20296,7 +20296,7 @@
         <v>29843764.134474799</v>
       </c>
     </row>
-    <row r="257" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -20354,7 +20354,7 @@
         <v>7817745.3476921497</v>
       </c>
     </row>
-    <row r="258" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -20412,7 +20412,7 @@
         <v>30474784.2804185</v>
       </c>
     </row>
-    <row r="259" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -20470,7 +20470,7 @@
         <v>8875961.0250158291</v>
       </c>
     </row>
-    <row r="260" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -20528,7 +20528,7 @@
         <v>43359474.1252959</v>
       </c>
     </row>
-    <row r="261" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -20586,7 +20586,7 @@
         <v>110033129.397947</v>
       </c>
     </row>
-    <row r="262" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -20644,7 +20644,7 @@
         <v>32578410.796717498</v>
       </c>
     </row>
-    <row r="263" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -20702,7 +20702,7 @@
         <v>10219431.937639499</v>
       </c>
     </row>
-    <row r="264" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -20760,7 +20760,7 @@
         <v>17614582.138758902</v>
       </c>
     </row>
-    <row r="265" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>264</v>
       </c>
@@ -20818,7 +20818,7 @@
         <v>32583250.155760601</v>
       </c>
     </row>
-    <row r="266" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -20876,7 +20876,7 @@
         <v>15137430.665752901</v>
       </c>
     </row>
-    <row r="267" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -20934,7 +20934,7 @@
         <v>19212903.468168199</v>
       </c>
     </row>
-    <row r="268" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>267</v>
       </c>
@@ -20992,7 +20992,7 @@
         <v>13785256.555536</v>
       </c>
     </row>
-    <row r="269" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>268</v>
       </c>
@@ -21050,7 +21050,7 @@
         <v>33426966.275331799</v>
       </c>
     </row>
-    <row r="270" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>269</v>
       </c>
@@ -21108,7 +21108,7 @@
         <v>8564949.6186064109</v>
       </c>
     </row>
-    <row r="271" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -21166,7 +21166,7 @@
         <v>28709278.033163499</v>
       </c>
     </row>
-    <row r="272" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>271</v>
       </c>
@@ -21224,7 +21224,7 @@
         <v>37882663.331041902</v>
       </c>
     </row>
-    <row r="273" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -21282,7 +21282,7 @@
         <v>65312591.5351118</v>
       </c>
     </row>
-    <row r="274" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -21340,7 +21340,7 @@
         <v>5312094.4765798301</v>
       </c>
     </row>
-    <row r="275" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -21398,7 +21398,7 @@
         <v>20774635.099536698</v>
       </c>
     </row>
-    <row r="276" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -21456,7 +21456,7 @@
         <v>5130382.1531311898</v>
       </c>
     </row>
-    <row r="277" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -21514,7 +21514,7 @@
         <v>15294876.845135299</v>
       </c>
     </row>
-    <row r="278" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -21572,7 +21572,7 @@
         <v>43875024.214184001</v>
       </c>
     </row>
-    <row r="279" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -21630,7 +21630,7 @@
         <v>93970508.512403801</v>
       </c>
     </row>
-    <row r="280" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>279</v>
       </c>
@@ -21688,7 +21688,7 @@
         <v>175977655.27555001</v>
       </c>
     </row>
-    <row r="281" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -21746,7 +21746,7 @@
         <v>10332100.2251832</v>
       </c>
     </row>
-    <row r="282" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -21804,7 +21804,7 @@
         <v>30888372.196182098</v>
       </c>
     </row>
-    <row r="283" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>282</v>
       </c>
@@ -21862,7 +21862,7 @@
         <v>5318294.78898755</v>
       </c>
     </row>
-    <row r="284" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>283</v>
       </c>
@@ -21920,7 +21920,7 @@
         <v>101393325.13144299</v>
       </c>
     </row>
-    <row r="285" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>284</v>
       </c>
@@ -21978,7 +21978,7 @@
         <v>55885767.831276298</v>
       </c>
     </row>
-    <row r="286" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>285</v>
       </c>
@@ -22036,7 +22036,7 @@
         <v>131647895.24743</v>
       </c>
     </row>
-    <row r="287" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>286</v>
       </c>
@@ -22094,7 +22094,7 @@
         <v>12742068.7192143</v>
       </c>
     </row>
-    <row r="288" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>287</v>
       </c>
@@ -22152,7 +22152,7 @@
         <v>80376146.424741194</v>
       </c>
     </row>
-    <row r="289" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>288</v>
       </c>
@@ -22210,7 +22210,7 @@
         <v>140136487.22382599</v>
       </c>
     </row>
-    <row r="290" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>289</v>
       </c>
@@ -22268,7 +22268,7 @@
         <v>26604952.888617601</v>
       </c>
     </row>
-    <row r="291" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>290</v>
       </c>
@@ -22326,7 +22326,7 @@
         <v>6341485.3406119896</v>
       </c>
     </row>
-    <row r="292" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>291</v>
       </c>
@@ -22384,7 +22384,7 @@
         <v>35955045.639815398</v>
       </c>
     </row>
-    <row r="293" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>292</v>
       </c>
@@ -22442,7 +22442,7 @@
         <v>6091136.6655432098</v>
       </c>
     </row>
-    <row r="294" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>293</v>
       </c>
@@ -22500,7 +22500,7 @@
         <v>313555952.450616</v>
       </c>
     </row>
-    <row r="295" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>294</v>
       </c>
@@ -22558,7 +22558,7 @@
         <v>16719237.261068</v>
       </c>
     </row>
-    <row r="296" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>295</v>
       </c>
@@ -22616,7 +22616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>296</v>
       </c>
@@ -22674,7 +22674,7 @@
         <v>4874991.6236339202</v>
       </c>
     </row>
-    <row r="298" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>297</v>
       </c>
@@ -22732,7 +22732,7 @@
         <v>24201916.026780799</v>
       </c>
     </row>
-    <row r="299" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>298</v>
       </c>
@@ -22790,7 +22790,7 @@
         <v>16874800.374694601</v>
       </c>
     </row>
-    <row r="300" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>299</v>
       </c>
@@ -22848,7 +22848,7 @@
         <v>129699924.29912101</v>
       </c>
     </row>
-    <row r="301" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>300</v>
       </c>
@@ -22906,7 +22906,7 @@
         <v>40228548.298423097</v>
       </c>
     </row>
-    <row r="302" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>301</v>
       </c>
@@ -22964,7 +22964,7 @@
         <v>11739247.0689968</v>
       </c>
     </row>
-    <row r="303" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>302</v>
       </c>
@@ -23022,7 +23022,7 @@
         <v>11445645.939225599</v>
       </c>
     </row>
-    <row r="304" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>303</v>
       </c>
@@ -23080,7 +23080,7 @@
         <v>19685886.144303899</v>
       </c>
     </row>
-    <row r="305" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>304</v>
       </c>
@@ -23138,7 +23138,7 @@
         <v>62021916.1128987</v>
       </c>
     </row>
-    <row r="306" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>305</v>
       </c>
@@ -23196,7 +23196,7 @@
         <v>4752310.1867298</v>
       </c>
     </row>
-    <row r="307" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>306</v>
       </c>
@@ -23254,7 +23254,7 @@
         <v>61166985.025174297</v>
       </c>
     </row>
-    <row r="308" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>307</v>
       </c>
@@ -23312,7 +23312,7 @@
         <v>19715324.054554399</v>
       </c>
     </row>
-    <row r="309" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>308</v>
       </c>
@@ -23370,7 +23370,7 @@
         <v>16739375.992670501</v>
       </c>
     </row>
-    <row r="310" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>309</v>
       </c>
@@ -23428,7 +23428,7 @@
         <v>49830169.221571296</v>
       </c>
     </row>
-    <row r="311" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>310</v>
       </c>
@@ -23486,7 +23486,7 @@
         <v>147461314.67462799</v>
       </c>
     </row>
-    <row r="312" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>311</v>
       </c>
@@ -23544,7 +23544,7 @@
         <v>98761944.260346502</v>
       </c>
     </row>
-    <row r="313" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>312</v>
       </c>
@@ -23602,7 +23602,7 @@
         <v>30508956.581627399</v>
       </c>
     </row>
-    <row r="314" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>313</v>
       </c>
@@ -23660,7 +23660,7 @@
         <v>102985998.346026</v>
       </c>
     </row>
-    <row r="315" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>314</v>
       </c>
@@ -23718,7 +23718,7 @@
         <v>18786460.605107501</v>
       </c>
     </row>
-    <row r="316" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>315</v>
       </c>
@@ -23776,7 +23776,7 @@
         <v>25132208.8937556</v>
       </c>
     </row>
-    <row r="317" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>316</v>
       </c>
@@ -23834,7 +23834,7 @@
         <v>354116478.26623398</v>
       </c>
     </row>
-    <row r="318" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>317</v>
       </c>
@@ -23892,7 +23892,7 @@
         <v>20852135.443474699</v>
       </c>
     </row>
-    <row r="319" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>318</v>
       </c>
@@ -23950,7 +23950,7 @@
         <v>31127450.849055301</v>
       </c>
     </row>
-    <row r="320" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>319</v>
       </c>
@@ -24008,7 +24008,7 @@
         <v>27905030.5915308</v>
       </c>
     </row>
-    <row r="321" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>320</v>
       </c>
@@ -24066,7 +24066,7 @@
         <v>15091700.5785935</v>
       </c>
     </row>
-    <row r="322" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>321</v>
       </c>
@@ -24124,7 +24124,7 @@
         <v>36729280.716433503</v>
       </c>
     </row>
-    <row r="323" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>322</v>
       </c>
@@ -24182,7 +24182,7 @@
         <v>9572863.9855518397</v>
       </c>
     </row>
-    <row r="324" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>323</v>
       </c>
@@ -24240,7 +24240,7 @@
         <v>97482564.918623894</v>
       </c>
     </row>
-    <row r="325" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>324</v>
       </c>
@@ -24298,7 +24298,7 @@
         <v>63718870.813999698</v>
       </c>
     </row>
-    <row r="326" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>325</v>
       </c>
@@ -24356,7 +24356,7 @@
         <v>16046482.3012782</v>
       </c>
     </row>
-    <row r="327" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>326</v>
       </c>
@@ -24414,7 +24414,7 @@
         <v>5641881.8351569297</v>
       </c>
     </row>
-    <row r="328" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>327</v>
       </c>
@@ -24472,7 +24472,7 @@
         <v>25839000.361750901</v>
       </c>
     </row>
-    <row r="329" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>328</v>
       </c>
@@ -24530,7 +24530,7 @@
         <v>333481559.47244501</v>
       </c>
     </row>
-    <row r="330" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>329</v>
       </c>
@@ -24588,7 +24588,7 @@
         <v>314723774.56817001</v>
       </c>
     </row>
-    <row r="331" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>330</v>
       </c>
@@ -24646,7 +24646,7 @@
         <v>35400687.315142497</v>
       </c>
     </row>
-    <row r="332" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>331</v>
       </c>
@@ -24704,7 +24704,7 @@
         <v>17979998.471455801</v>
       </c>
     </row>
-    <row r="333" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>332</v>
       </c>
@@ -24762,7 +24762,7 @@
         <v>65550218.294033103</v>
       </c>
     </row>
-    <row r="334" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>333</v>
       </c>
@@ -24820,7 +24820,7 @@
         <v>15704445.2192131</v>
       </c>
     </row>
-    <row r="335" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>334</v>
       </c>
@@ -24878,7 +24878,7 @@
         <v>10096129.053734399</v>
       </c>
     </row>
-    <row r="336" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>335</v>
       </c>
@@ -24936,7 +24936,7 @@
         <v>39304163.085337602</v>
       </c>
     </row>
-    <row r="337" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>336</v>
       </c>
@@ -24994,7 +24994,7 @@
         <v>29785377.612162098</v>
       </c>
     </row>
-    <row r="338" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>337</v>
       </c>
@@ -25052,7 +25052,7 @@
         <v>70160133.933676794</v>
       </c>
     </row>
-    <row r="339" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>338</v>
       </c>
@@ -25110,7 +25110,7 @@
         <v>19459444.485508598</v>
       </c>
     </row>
-    <row r="340" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>339</v>
       </c>
@@ -25168,7 +25168,7 @@
         <v>62995884.734736897</v>
       </c>
     </row>
-    <row r="341" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>340</v>
       </c>
@@ -25226,7 +25226,7 @@
         <v>15914591.327870199</v>
       </c>
     </row>
-    <row r="342" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>341</v>
       </c>
@@ -25284,7 +25284,7 @@
         <v>37563228.149794899</v>
       </c>
     </row>
-    <row r="343" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>342</v>
       </c>
@@ -25342,7 +25342,7 @@
         <v>20202187.8116914</v>
       </c>
     </row>
-    <row r="344" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>343</v>
       </c>
@@ -25400,7 +25400,7 @@
         <v>37993071.589299902</v>
       </c>
     </row>
-    <row r="345" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>344</v>
       </c>
@@ -25458,7 +25458,7 @@
         <v>23779570.769689001</v>
       </c>
     </row>
-    <row r="346" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>345</v>
       </c>
@@ -25516,7 +25516,7 @@
         <v>38085130.555267602</v>
       </c>
     </row>
-    <row r="347" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>346</v>
       </c>
@@ -25574,7 +25574,7 @@
         <v>139066300.627534</v>
       </c>
     </row>
-    <row r="348" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>347</v>
       </c>
@@ -25632,7 +25632,7 @@
         <v>54152720.011635102</v>
       </c>
     </row>
-    <row r="349" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>348</v>
       </c>
@@ -25690,7 +25690,7 @@
         <v>102784721.398377</v>
       </c>
     </row>
-    <row r="350" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>349</v>
       </c>
@@ -25748,7 +25748,7 @@
         <v>12033653.4613152</v>
       </c>
     </row>
-    <row r="351" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>350</v>
       </c>
@@ -25806,7 +25806,7 @@
         <v>52070196.316010803</v>
       </c>
     </row>
-    <row r="352" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>351</v>
       </c>
@@ -25864,7 +25864,7 @@
         <v>21011196.583819602</v>
       </c>
     </row>
-    <row r="353" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>352</v>
       </c>
@@ -25922,7 +25922,7 @@
         <v>11284589.6398986</v>
       </c>
     </row>
-    <row r="354" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>353</v>
       </c>
@@ -25980,7 +25980,7 @@
         <v>16491483.172831999</v>
       </c>
     </row>
-    <row r="355" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>354</v>
       </c>
@@ -26038,7 +26038,7 @@
         <v>8217416.9222722296</v>
       </c>
     </row>
-    <row r="356" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>355</v>
       </c>
@@ -26096,7 +26096,7 @@
         <v>60877811.970253401</v>
       </c>
     </row>
-    <row r="357" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>356</v>
       </c>
@@ -26154,7 +26154,7 @@
         <v>15126664.1112363</v>
       </c>
     </row>
-    <row r="358" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>357</v>
       </c>
@@ -26212,7 +26212,7 @@
         <v>27461394.009672899</v>
       </c>
     </row>
-    <row r="359" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>358</v>
       </c>
@@ -26270,7 +26270,7 @@
         <v>38012064.798709601</v>
       </c>
     </row>
-    <row r="360" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>359</v>
       </c>
@@ -26328,7 +26328,7 @@
         <v>43064169.281303599</v>
       </c>
     </row>
-    <row r="361" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>360</v>
       </c>
@@ -26386,7 +26386,7 @@
         <v>63562657.345713302</v>
       </c>
     </row>
-    <row r="362" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>361</v>
       </c>
@@ -26444,7 +26444,7 @@
         <v>20261707.350193899</v>
       </c>
     </row>
-    <row r="363" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>362</v>
       </c>
@@ -26502,7 +26502,7 @@
         <v>66115113.262213998</v>
       </c>
     </row>
-    <row r="364" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>363</v>
       </c>
@@ -26560,7 +26560,7 @@
         <v>26077578.705306999</v>
       </c>
     </row>
-    <row r="365" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>364</v>
       </c>
@@ -26618,7 +26618,7 @@
         <v>461550881.07191098</v>
       </c>
     </row>
-    <row r="366" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>365</v>
       </c>
@@ -26676,7 +26676,7 @@
         <v>19133104.9658955</v>
       </c>
     </row>
-    <row r="367" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>366</v>
       </c>
@@ -26734,7 +26734,7 @@
         <v>5563045.0416101199</v>
       </c>
     </row>
-    <row r="368" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>367</v>
       </c>
@@ -26792,7 +26792,7 @@
         <v>124088849.007388</v>
       </c>
     </row>
-    <row r="369" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>368</v>
       </c>
@@ -26850,7 +26850,7 @@
         <v>380462790.36022198</v>
       </c>
     </row>
-    <row r="370" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>369</v>
       </c>
@@ -26908,7 +26908,7 @@
         <v>178281430.04623401</v>
       </c>
     </row>
-    <row r="371" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>370</v>
       </c>
@@ -26966,7 +26966,7 @@
         <v>5208445.16680915</v>
       </c>
     </row>
-    <row r="372" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>371</v>
       </c>
@@ -27024,7 +27024,7 @@
         <v>6821959.7104040999</v>
       </c>
     </row>
-    <row r="373" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>372</v>
       </c>
@@ -27082,7 +27082,7 @@
         <v>5660075.1723995302</v>
       </c>
     </row>
-    <row r="374" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>373</v>
       </c>
@@ -27140,7 +27140,7 @@
         <v>83313798.456460893</v>
       </c>
     </row>
-    <row r="375" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>374</v>
       </c>
@@ -27198,7 +27198,7 @@
         <v>53505816.884655297</v>
       </c>
     </row>
-    <row r="376" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>375</v>
       </c>
@@ -27256,7 +27256,7 @@
         <v>134121963.081486</v>
       </c>
     </row>
-    <row r="377" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>376</v>
       </c>
@@ -27314,7 +27314,7 @@
         <v>156120652.26238501</v>
       </c>
     </row>
-    <row r="378" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>377</v>
       </c>
@@ -27372,7 +27372,7 @@
         <v>27494818.161040898</v>
       </c>
     </row>
-    <row r="379" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>378</v>
       </c>
@@ -27430,7 +27430,7 @@
         <v>105516015.84645601</v>
       </c>
     </row>
-    <row r="380" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>379</v>
       </c>
@@ -27488,7 +27488,7 @@
         <v>94785995.945916906</v>
       </c>
     </row>
-    <row r="381" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>380</v>
       </c>
@@ -27546,7 +27546,7 @@
         <v>12591204.633613</v>
       </c>
     </row>
-    <row r="382" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>381</v>
       </c>
@@ -27604,7 +27604,7 @@
         <v>32527837.379808702</v>
       </c>
     </row>
-    <row r="383" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>382</v>
       </c>
@@ -27662,7 +27662,7 @@
         <v>43109443.985439003</v>
       </c>
     </row>
-    <row r="384" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>383</v>
       </c>
@@ -27720,7 +27720,7 @@
         <v>53265655.599541202</v>
       </c>
     </row>
-    <row r="385" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>384</v>
       </c>
@@ -27778,7 +27778,7 @@
         <v>189528580.930825</v>
       </c>
     </row>
-    <row r="386" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>385</v>
       </c>
@@ -27836,7 +27836,7 @@
         <v>376029939.132653</v>
       </c>
     </row>
-    <row r="387" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>386</v>
       </c>
@@ -27894,7 +27894,7 @@
         <v>31032647.224663999</v>
       </c>
     </row>
-    <row r="388" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>387</v>
       </c>
@@ -27952,7 +27952,7 @@
         <v>15901132.7781434</v>
       </c>
     </row>
-    <row r="389" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>388</v>
       </c>
@@ -28010,7 +28010,7 @@
         <v>7052201.1369832298</v>
       </c>
     </row>
-    <row r="390" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>389</v>
       </c>
@@ -28068,7 +28068,7 @@
         <v>5727171.8011633698</v>
       </c>
     </row>
-    <row r="391" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>390</v>
       </c>
@@ -28126,7 +28126,7 @@
         <v>34529932.978080899</v>
       </c>
     </row>
-    <row r="392" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>391</v>
       </c>
@@ -28184,7 +28184,7 @@
         <v>233582043.159466</v>
       </c>
     </row>
-    <row r="393" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>392</v>
       </c>
@@ -28242,7 +28242,7 @@
         <v>8705833.08491542</v>
       </c>
     </row>
-    <row r="394" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>393</v>
       </c>
@@ -28300,7 +28300,7 @@
         <v>16764843.785968199</v>
       </c>
     </row>
-    <row r="395" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>394</v>
       </c>
@@ -28358,7 +28358,7 @@
         <v>27893833.302464601</v>
       </c>
     </row>
-    <row r="396" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>395</v>
       </c>
@@ -28416,7 +28416,7 @@
         <v>4277486.0646591401</v>
       </c>
     </row>
-    <row r="397" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>396</v>
       </c>
@@ -28474,7 +28474,7 @@
         <v>11821910.533501901</v>
       </c>
     </row>
-    <row r="398" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>397</v>
       </c>
@@ -28532,7 +28532,7 @@
         <v>19087893.557199799</v>
       </c>
     </row>
-    <row r="399" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>398</v>
       </c>
@@ -28590,7 +28590,7 @@
         <v>6179323.35776495</v>
       </c>
     </row>
-    <row r="400" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>399</v>
       </c>
@@ -28648,7 +28648,7 @@
         <v>13835472.328535501</v>
       </c>
     </row>
-    <row r="401" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>400</v>
       </c>
@@ -28706,7 +28706,7 @@
         <v>35243368.779719397</v>
       </c>
     </row>
-    <row r="402" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>401</v>
       </c>
@@ -28764,7 +28764,7 @@
         <v>184421550.05613601</v>
       </c>
     </row>
-    <row r="403" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>402</v>
       </c>
@@ -28822,7 +28822,7 @@
         <v>7658765.8274918301</v>
       </c>
     </row>
-    <row r="404" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>403</v>
       </c>
@@ -28880,7 +28880,7 @@
         <v>249155427.71931601</v>
       </c>
     </row>
-    <row r="405" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>404</v>
       </c>
@@ -28938,7 +28938,7 @@
         <v>271067388.24797499</v>
       </c>
     </row>
-    <row r="406" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>405</v>
       </c>
@@ -28996,7 +28996,7 @@
         <v>47164247.441929802</v>
       </c>
     </row>
-    <row r="407" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>406</v>
       </c>
@@ -29054,7 +29054,7 @@
         <v>25414428.792038001</v>
       </c>
     </row>
-    <row r="408" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>407</v>
       </c>
@@ -29112,7 +29112,7 @@
         <v>104466369.438168</v>
       </c>
     </row>
-    <row r="409" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>408</v>
       </c>
@@ -29170,7 +29170,7 @@
         <v>44165672.008784503</v>
       </c>
     </row>
-    <row r="410" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>409</v>
       </c>
@@ -29228,7 +29228,7 @@
         <v>17644833.485764701</v>
       </c>
     </row>
-    <row r="411" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>410</v>
       </c>
@@ -29286,7 +29286,7 @@
         <v>33612846.640355401</v>
       </c>
     </row>
-    <row r="412" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>411</v>
       </c>
@@ -29344,7 +29344,7 @@
         <v>43806086.168228298</v>
       </c>
     </row>
-    <row r="413" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>412</v>
       </c>
@@ -29402,7 +29402,7 @@
         <v>21012402.009635702</v>
       </c>
     </row>
-    <row r="414" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>413</v>
       </c>
@@ -29460,7 +29460,7 @@
         <v>33079949.500856601</v>
       </c>
     </row>
-    <row r="415" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>414</v>
       </c>
@@ -29518,7 +29518,7 @@
         <v>139982609.69790301</v>
       </c>
     </row>
-    <row r="416" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>415</v>
       </c>
@@ -29576,7 +29576,7 @@
         <v>13774006.5100777</v>
       </c>
     </row>
-    <row r="417" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>416</v>
       </c>
@@ -29634,7 +29634,7 @@
         <v>8116989.2840193398</v>
       </c>
     </row>
-    <row r="418" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>417</v>
       </c>
@@ -29692,7 +29692,7 @@
         <v>49430213.918913104</v>
       </c>
     </row>
-    <row r="419" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>418</v>
       </c>
@@ -29750,7 +29750,7 @@
         <v>2404711.0695004198</v>
       </c>
     </row>
-    <row r="420" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>419</v>
       </c>
@@ -29808,7 +29808,7 @@
         <v>20802082.001544502</v>
       </c>
     </row>
-    <row r="421" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>420</v>
       </c>
@@ -29866,7 +29866,7 @@
         <v>13094977.477364101</v>
       </c>
     </row>
-    <row r="422" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>421</v>
       </c>
@@ -29924,7 +29924,7 @@
         <v>21103514.034594402</v>
       </c>
     </row>
-    <row r="423" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>422</v>
       </c>
@@ -29982,7 +29982,7 @@
         <v>66114093.6663872</v>
       </c>
     </row>
-    <row r="424" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>423</v>
       </c>
@@ -30040,7 +30040,7 @@
         <v>16867030.4935508</v>
       </c>
     </row>
-    <row r="425" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>424</v>
       </c>
@@ -30098,7 +30098,7 @@
         <v>59919140.4793965</v>
       </c>
     </row>
-    <row r="426" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>425</v>
       </c>
@@ -30156,7 +30156,7 @@
         <v>273553778.58005297</v>
       </c>
     </row>
-    <row r="427" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>426</v>
       </c>
@@ -30214,7 +30214,7 @@
         <v>65220854.741007604</v>
       </c>
     </row>
-    <row r="428" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>427</v>
       </c>
@@ -30272,7 +30272,7 @@
         <v>18741468.933080599</v>
       </c>
     </row>
-    <row r="429" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>428</v>
       </c>
@@ -30330,7 +30330,7 @@
         <v>10431296.276270799</v>
       </c>
     </row>
-    <row r="430" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>429</v>
       </c>
@@ -30388,7 +30388,7 @@
         <v>48152790.735637099</v>
       </c>
     </row>
-    <row r="431" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>430</v>
       </c>
@@ -30446,7 +30446,7 @@
         <v>6783492.2084093504</v>
       </c>
     </row>
-    <row r="432" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>431</v>
       </c>
@@ -30504,7 +30504,7 @@
         <v>14995123.2167555</v>
       </c>
     </row>
-    <row r="433" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>432</v>
       </c>
@@ -30562,7 +30562,7 @@
         <v>15510726.723572301</v>
       </c>
     </row>
-    <row r="434" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>433</v>
       </c>
@@ -30620,7 +30620,7 @@
         <v>55362912.283100598</v>
       </c>
     </row>
-    <row r="435" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>434</v>
       </c>
@@ -30678,7 +30678,7 @@
         <v>26058690.892981</v>
       </c>
     </row>
-    <row r="436" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>435</v>
       </c>
@@ -30736,7 +30736,7 @@
         <v>3991846.0579509302</v>
       </c>
     </row>
-    <row r="437" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>436</v>
       </c>
@@ -30794,7 +30794,7 @@
         <v>49832037.611723199</v>
       </c>
     </row>
-    <row r="438" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>437</v>
       </c>
@@ -30852,7 +30852,7 @@
         <v>11669017.0603029</v>
       </c>
     </row>
-    <row r="439" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>438</v>
       </c>
@@ -30910,7 +30910,7 @@
         <v>55158392.768911101</v>
       </c>
     </row>
-    <row r="440" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>439</v>
       </c>
@@ -30968,7 +30968,7 @@
         <v>16231828.7736116</v>
       </c>
     </row>
-    <row r="441" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>440</v>
       </c>
@@ -31026,7 +31026,7 @@
         <v>111462400.200552</v>
       </c>
     </row>
-    <row r="442" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>441</v>
       </c>
@@ -31084,7 +31084,7 @@
         <v>40346898.1910301</v>
       </c>
     </row>
-    <row r="443" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>442</v>
       </c>
@@ -31142,7 +31142,7 @@
         <v>23069850.777139399</v>
       </c>
     </row>
-    <row r="444" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>443</v>
       </c>
@@ -31200,7 +31200,7 @@
         <v>7724889.40744696</v>
       </c>
     </row>
-    <row r="445" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>444</v>
       </c>
@@ -31258,7 +31258,7 @@
         <v>10417287.665442299</v>
       </c>
     </row>
-    <row r="446" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>445</v>
       </c>
@@ -31316,7 +31316,7 @@
         <v>36930000.690362602</v>
       </c>
     </row>
-    <row r="447" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>446</v>
       </c>
@@ -31374,7 +31374,7 @@
         <v>13575571.803157801</v>
       </c>
     </row>
-    <row r="448" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>447</v>
       </c>
@@ -31432,7 +31432,7 @@
         <v>25172592.950235698</v>
       </c>
     </row>
-    <row r="449" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>448</v>
       </c>
@@ -31490,7 +31490,7 @@
         <v>13614008.3381174</v>
       </c>
     </row>
-    <row r="450" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>449</v>
       </c>
@@ -31548,7 +31548,7 @@
         <v>27837206.276188198</v>
       </c>
     </row>
-    <row r="451" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>450</v>
       </c>
@@ -31606,7 +31606,7 @@
         <v>99442220.578639597</v>
       </c>
     </row>
-    <row r="452" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>451</v>
       </c>
@@ -31664,7 +31664,7 @@
         <v>51083976.447846003</v>
       </c>
     </row>
-    <row r="453" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>452</v>
       </c>
@@ -31722,7 +31722,7 @@
         <v>18057512.413897999</v>
       </c>
     </row>
-    <row r="454" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>453</v>
       </c>
@@ -31780,7 +31780,7 @@
         <v>21258459.807868101</v>
       </c>
     </row>
-    <row r="455" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>454</v>
       </c>
@@ -31838,7 +31838,7 @@
         <v>24719840.877822801</v>
       </c>
     </row>
-    <row r="456" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>455</v>
       </c>
@@ -31896,7 +31896,7 @@
         <v>22147892.518068001</v>
       </c>
     </row>
-    <row r="457" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>456</v>
       </c>
@@ -31954,7 +31954,7 @@
         <v>35524318.817839101</v>
       </c>
     </row>
-    <row r="458" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>457</v>
       </c>
@@ -32012,7 +32012,7 @@
         <v>34776647.883451797</v>
       </c>
     </row>
-    <row r="459" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>458</v>
       </c>
@@ -32070,7 +32070,7 @@
         <v>58696468.826174602</v>
       </c>
     </row>
-    <row r="460" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>459</v>
       </c>
@@ -32128,7 +32128,7 @@
         <v>72690523.382163197</v>
       </c>
     </row>
-    <row r="461" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>460</v>
       </c>
@@ -32186,7 +32186,7 @@
         <v>38324643.247607</v>
       </c>
     </row>
-    <row r="462" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>461</v>
       </c>
@@ -32244,7 +32244,7 @@
         <v>44359118.754685603</v>
       </c>
     </row>
-    <row r="463" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>462</v>
       </c>
@@ -32302,7 +32302,7 @@
         <v>238066227.053754</v>
       </c>
     </row>
-    <row r="464" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>463</v>
       </c>
@@ -32360,7 +32360,7 @@
         <v>12223980.5435412</v>
       </c>
     </row>
-    <row r="465" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>464</v>
       </c>
@@ -32418,7 +32418,7 @@
         <v>9442987.0295534097</v>
       </c>
     </row>
-    <row r="466" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>465</v>
       </c>
@@ -32476,7 +32476,7 @@
         <v>12498564.717996901</v>
       </c>
     </row>
-    <row r="467" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>466</v>
       </c>
@@ -32534,7 +32534,7 @@
         <v>13748167.7079682</v>
       </c>
     </row>
-    <row r="468" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>467</v>
       </c>
@@ -32592,7 +32592,7 @@
         <v>21443974.599983901</v>
       </c>
     </row>
-    <row r="469" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>468</v>
       </c>
@@ -32650,7 +32650,7 @@
         <v>215660999.67247</v>
       </c>
     </row>
-    <row r="470" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>469</v>
       </c>
@@ -32708,7 +32708,7 @@
         <v>68076770.024208993</v>
       </c>
     </row>
-    <row r="471" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>470</v>
       </c>
@@ -32766,7 +32766,7 @@
         <v>45813287.164494</v>
       </c>
     </row>
-    <row r="472" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>471</v>
       </c>
@@ -32824,7 +32824,7 @@
         <v>35274239.8868424</v>
       </c>
     </row>
-    <row r="473" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>472</v>
       </c>
@@ -32882,7 +32882,7 @@
         <v>373375769.30038702</v>
       </c>
     </row>
-    <row r="474" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>473</v>
       </c>
@@ -32931,7 +32931,7 @@
         <v>15.492692379999999</v>
       </c>
       <c r="R474" s="1">
-        <v>0</v>
+        <v>50959180.020000003</v>
       </c>
       <c r="S474" s="1">
         <v>129878787807.40276</v>
@@ -32940,7 +32940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>474</v>
       </c>
@@ -32998,7 +32998,7 @@
         <v>28516371.935224801</v>
       </c>
     </row>
-    <row r="476" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>475</v>
       </c>
@@ -33056,7 +33056,7 @@
         <v>15295564.6558738</v>
       </c>
     </row>
-    <row r="477" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>476</v>
       </c>
@@ -33114,7 +33114,7 @@
         <v>31007463.622887399</v>
       </c>
     </row>
-    <row r="478" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>477</v>
       </c>
@@ -33172,7 +33172,7 @@
         <v>8308738.5850508204</v>
       </c>
     </row>
-    <row r="479" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>478</v>
       </c>
@@ -33230,7 +33230,7 @@
         <v>42032444.181631602</v>
       </c>
     </row>
-    <row r="480" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>479</v>
       </c>
@@ -33288,7 +33288,7 @@
         <v>7321481.8106342899</v>
       </c>
     </row>
-    <row r="481" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>480</v>
       </c>
@@ -33346,7 +33346,7 @@
         <v>54455934.867097497</v>
       </c>
     </row>
-    <row r="482" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>481</v>
       </c>
@@ -33404,7 +33404,7 @@
         <v>9060374.0084394999</v>
       </c>
     </row>
-    <row r="483" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>482</v>
       </c>
@@ -33462,7 +33462,7 @@
         <v>47039790.4948567</v>
       </c>
     </row>
-    <row r="484" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>483</v>
       </c>
@@ -33520,7 +33520,7 @@
         <v>119926911.732161</v>
       </c>
     </row>
-    <row r="485" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>484</v>
       </c>
@@ -33578,7 +33578,7 @@
         <v>49364332.061375096</v>
       </c>
     </row>
-    <row r="486" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>485</v>
       </c>
@@ -33636,7 +33636,7 @@
         <v>11030886.414287901</v>
       </c>
     </row>
-    <row r="487" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>486</v>
       </c>
@@ -33694,7 +33694,7 @@
         <v>104503890.649014</v>
       </c>
     </row>
-    <row r="488" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>487</v>
       </c>
@@ -33752,7 +33752,7 @@
         <v>83782644.254775703</v>
       </c>
     </row>
-    <row r="489" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>488</v>
       </c>
@@ -33810,7 +33810,7 @@
         <v>64013895.233723097</v>
       </c>
     </row>
-    <row r="490" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>489</v>
       </c>
@@ -33868,7 +33868,7 @@
         <v>25058669.519553501</v>
       </c>
     </row>
-    <row r="491" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>490</v>
       </c>
@@ -33926,7 +33926,7 @@
         <v>10421719.621392399</v>
       </c>
     </row>
-    <row r="492" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>491</v>
       </c>
@@ -33984,7 +33984,7 @@
         <v>20480683.626412801</v>
       </c>
     </row>
-    <row r="493" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>492</v>
       </c>
@@ -34042,7 +34042,7 @@
         <v>18685502.0284908</v>
       </c>
     </row>
-    <row r="494" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>493</v>
       </c>
@@ -34100,7 +34100,7 @@
         <v>5830430.4162761997</v>
       </c>
     </row>
-    <row r="495" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>494</v>
       </c>
@@ -34158,7 +34158,7 @@
         <v>16418180.656598501</v>
       </c>
     </row>
-    <row r="496" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>495</v>
       </c>
@@ -34216,7 +34216,7 @@
         <v>98733923.395418704</v>
       </c>
     </row>
-    <row r="497" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>496</v>
       </c>
@@ -34274,7 +34274,7 @@
         <v>22303248.852157801</v>
       </c>
     </row>
-    <row r="498" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>497</v>
       </c>
@@ -34332,7 +34332,7 @@
         <v>16431691.6066058</v>
       </c>
     </row>
-    <row r="499" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>498</v>
       </c>
@@ -34390,7 +34390,7 @@
         <v>35541095.3339165</v>
       </c>
     </row>
-    <row r="500" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>499</v>
       </c>
@@ -34448,7 +34448,7 @@
         <v>27298532.119479202</v>
       </c>
     </row>
-    <row r="501" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A501" s="1">
         <v>500</v>
       </c>
